--- a/_RESULTS/PCA/MHZ_usable_data_pca.xlsx
+++ b/_RESULTS/PCA/MHZ_usable_data_pca.xlsx
@@ -672,31 +672,31 @@
         <v>1.650071577156569</v>
       </c>
       <c r="E2">
-        <v>-1.966607039166602</v>
+        <v>-1.966607039166598</v>
       </c>
       <c r="F2">
-        <v>-1.36411716945514</v>
+        <v>-1.364117169455146</v>
       </c>
       <c r="G2">
-        <v>-0.4140421049107473</v>
+        <v>-0.4140421049107441</v>
       </c>
       <c r="H2">
-        <v>0.3476773676237273</v>
+        <v>0.3476773676237307</v>
       </c>
       <c r="I2">
-        <v>0.1373285577703198</v>
+        <v>0.1373285577703195</v>
       </c>
       <c r="J2">
-        <v>0.001905264830965411</v>
+        <v>0.001905264830965524</v>
       </c>
       <c r="K2">
-        <v>-0.1665183719202171</v>
+        <v>-0.1665183719202175</v>
       </c>
       <c r="L2">
-        <v>-0.03596597679931234</v>
+        <v>-0.0359659767993129</v>
       </c>
       <c r="M2">
-        <v>5.551115123125783e-16</v>
+        <v>9.436895709313831e-16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -713,31 +713,31 @@
         <v>15.16642211576039</v>
       </c>
       <c r="E3">
-        <v>2.202543327969221</v>
+        <v>2.202543327969213</v>
       </c>
       <c r="F3">
-        <v>2.129043657008129</v>
+        <v>2.129043657008134</v>
       </c>
       <c r="G3">
-        <v>-0.4479890959829288</v>
+        <v>-0.4479890959829362</v>
       </c>
       <c r="H3">
-        <v>-0.9229701195406962</v>
+        <v>-0.9229701195406903</v>
       </c>
       <c r="I3">
-        <v>0.00961548112245696</v>
+        <v>0.00961548112245535</v>
       </c>
       <c r="J3">
-        <v>0.268534057542425</v>
+        <v>0.2685340575424236</v>
       </c>
       <c r="K3">
-        <v>-0.191567922649001</v>
+        <v>-0.1915679226489997</v>
       </c>
       <c r="L3">
-        <v>-0.01134769410591033</v>
+        <v>-0.01134769410590897</v>
       </c>
       <c r="M3">
-        <v>1.332267629550188e-15</v>
+        <v>-1.887379141862766e-15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -754,31 +754,31 @@
         <v>14.66800256969813</v>
       </c>
       <c r="E4">
-        <v>2.487250315741897</v>
+        <v>2.487250315741891</v>
       </c>
       <c r="F4">
-        <v>1.073051618019139</v>
+        <v>1.073051618019146</v>
       </c>
       <c r="G4">
-        <v>1.098980368210709</v>
+        <v>1.098980368210708</v>
       </c>
       <c r="H4">
-        <v>0.1374730946513747</v>
+        <v>0.1374730946513692</v>
       </c>
       <c r="I4">
-        <v>0.05373183747170893</v>
+        <v>0.05373183747170768</v>
       </c>
       <c r="J4">
-        <v>-0.183124561931246</v>
+        <v>-0.1831245619312443</v>
       </c>
       <c r="K4">
-        <v>0.1314231079763741</v>
+        <v>0.1314231079763759</v>
       </c>
       <c r="L4">
-        <v>-0.01293014921435584</v>
+        <v>-0.01293014921435542</v>
       </c>
       <c r="M4">
-        <v>-8.881784197001252e-16</v>
+        <v>-1.221245327087672e-15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -792,34 +792,34 @@
         <v>5.599293527974555</v>
       </c>
       <c r="D5">
-        <v>0.5488398620443297</v>
+        <v>0.5488398620443291</v>
       </c>
       <c r="E5">
-        <v>-0.8607584586140473</v>
+        <v>-0.8607584586140423</v>
       </c>
       <c r="F5">
-        <v>-1.837125894038093</v>
+        <v>-1.837125894038095</v>
       </c>
       <c r="G5">
-        <v>1.193618190393638</v>
+        <v>1.19361819039364</v>
       </c>
       <c r="H5">
-        <v>0.122345449477368</v>
+        <v>0.1223454494773604</v>
       </c>
       <c r="I5">
-        <v>0.1023333775786173</v>
+        <v>0.1023333775786181</v>
       </c>
       <c r="J5">
-        <v>-0.2018015847538033</v>
+        <v>-0.2018015847538021</v>
       </c>
       <c r="K5">
-        <v>-0.02089717170445185</v>
+        <v>-0.02089717170445124</v>
       </c>
       <c r="L5">
-        <v>0.01327962916443889</v>
+        <v>0.01327962916443831</v>
       </c>
       <c r="M5">
-        <v>7.771561172376096e-16</v>
+        <v>-2.359223927328458e-16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -836,28 +836,28 @@
         <v>-6.311349902171694</v>
       </c>
       <c r="E6">
-        <v>8.52105501960741</v>
+        <v>8.521055019607418</v>
       </c>
       <c r="F6">
-        <v>-2.857579122867115</v>
+        <v>-2.857579122867093</v>
       </c>
       <c r="G6">
-        <v>0.7049862707593986</v>
+        <v>0.7049862707593969</v>
       </c>
       <c r="H6">
-        <v>0.04734597743267778</v>
+        <v>0.04734597743267149</v>
       </c>
       <c r="I6">
-        <v>0.2800787382123517</v>
+        <v>0.280078738212351</v>
       </c>
       <c r="J6">
-        <v>0.2136442732420291</v>
+        <v>0.2136442732420303</v>
       </c>
       <c r="K6">
-        <v>0.03426235552104378</v>
+        <v>0.03426235552104413</v>
       </c>
       <c r="L6">
-        <v>-0.03513383538778558</v>
+        <v>-0.03513383538778614</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -874,34 +874,34 @@
         <v>5.59694071670348</v>
       </c>
       <c r="D7">
-        <v>-1.60048821704237</v>
+        <v>-1.600488217042371</v>
       </c>
       <c r="E7">
         <v>-1.475155827790563</v>
       </c>
       <c r="F7">
-        <v>0.09404088484632615</v>
+        <v>0.09404088484632257</v>
       </c>
       <c r="G7">
-        <v>0.4537969829161899</v>
+        <v>0.4537969829161874</v>
       </c>
       <c r="H7">
-        <v>-0.414564224231268</v>
+        <v>-0.4145642242312709</v>
       </c>
       <c r="I7">
-        <v>-0.03103262139701623</v>
+        <v>-0.03103262139701615</v>
       </c>
       <c r="J7">
-        <v>-0.04677113171906114</v>
+        <v>-0.04677113171906092</v>
       </c>
       <c r="K7">
-        <v>0.0002761153312270559</v>
+        <v>0.0002761153312271858</v>
       </c>
       <c r="L7">
-        <v>-0.05694042448863385</v>
+        <v>-0.0569404244886339</v>
       </c>
       <c r="M7">
-        <v>1.221245327087672e-15</v>
+        <v>5.460042140637e-16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -915,34 +915,34 @@
         <v>5.596798580297507</v>
       </c>
       <c r="D8">
-        <v>-1.525739463308367</v>
+        <v>-1.525739463308368</v>
       </c>
       <c r="E8">
         <v>-1.586773776199738</v>
       </c>
       <c r="F8">
-        <v>0.09664621109668402</v>
+        <v>0.0966462110966799</v>
       </c>
       <c r="G8">
-        <v>0.05371906922344309</v>
+        <v>0.05371906922344184</v>
       </c>
       <c r="H8">
-        <v>-0.2636800203062065</v>
+        <v>-0.2636800203062069</v>
       </c>
       <c r="I8">
-        <v>-0.3706516536613614</v>
+        <v>-0.3706516536613616</v>
       </c>
       <c r="J8">
-        <v>0.1780670409553672</v>
+        <v>0.1780670409553669</v>
       </c>
       <c r="K8">
-        <v>-0.0001987324454821411</v>
+        <v>-0.0001987324454825198</v>
       </c>
       <c r="L8">
-        <v>-0.1122025983289412</v>
+        <v>-0.1122025983289415</v>
       </c>
       <c r="M8">
-        <v>-1.110223024625157e-16</v>
+        <v>4.579669976578771e-16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -959,31 +959,31 @@
         <v>-0.7344068869776166</v>
       </c>
       <c r="E9">
-        <v>-0.3779403911413981</v>
+        <v>-0.3779403911413979</v>
       </c>
       <c r="F9">
-        <v>0.01075775364265891</v>
+        <v>0.01075775364265799</v>
       </c>
       <c r="G9">
-        <v>0.3762466134530643</v>
+        <v>0.3762466134530609</v>
       </c>
       <c r="H9">
-        <v>-0.5266664211694938</v>
+        <v>-0.5266664211694962</v>
       </c>
       <c r="I9">
-        <v>-0.2882811857364196</v>
+        <v>-0.2882811857364194</v>
       </c>
       <c r="J9">
         <v>-0.1937648410387779</v>
       </c>
       <c r="K9">
-        <v>0.164636956261197</v>
+        <v>0.1646369562611977</v>
       </c>
       <c r="L9">
-        <v>-0.01826752201061572</v>
+        <v>-0.01826752201061596</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-7.91033905045424e-16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -997,34 +997,34 @@
         <v>5.597446007335155</v>
       </c>
       <c r="D10">
-        <v>-2.381797454620543</v>
+        <v>-2.381797454620544</v>
       </c>
       <c r="E10">
-        <v>-0.7671204248832908</v>
+        <v>-0.7671204248832929</v>
       </c>
       <c r="F10">
-        <v>1.097649039776422</v>
+        <v>1.097649039776419</v>
       </c>
       <c r="G10">
-        <v>-0.7884925067916613</v>
+        <v>-0.7884925067916665</v>
       </c>
       <c r="H10">
-        <v>-0.7852643875860597</v>
+        <v>-0.7852643875860541</v>
       </c>
       <c r="I10">
-        <v>0.5683499395781212</v>
+        <v>0.5683499395781203</v>
       </c>
       <c r="J10">
-        <v>-0.1684753661123243</v>
+        <v>-0.1684753661123237</v>
       </c>
       <c r="K10">
-        <v>0.1322611306818116</v>
+        <v>0.1322611306818114</v>
       </c>
       <c r="L10">
-        <v>-0.0817053945770171</v>
+        <v>-0.08170539457701725</v>
       </c>
       <c r="M10">
-        <v>6.661338147750939e-16</v>
+        <v>1.249000902703301e-15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1041,31 +1041,31 @@
         <v>-2.123375168687033</v>
       </c>
       <c r="E11">
-        <v>-0.2910629743683655</v>
+        <v>-0.2910629743683659</v>
       </c>
       <c r="F11">
-        <v>0.1873249563688113</v>
+        <v>0.1873249563688104</v>
       </c>
       <c r="G11">
-        <v>0.01994864047324494</v>
+        <v>0.01994864047324044</v>
       </c>
       <c r="H11">
-        <v>-0.6891480171441905</v>
+        <v>-0.6891480171441907</v>
       </c>
       <c r="I11">
-        <v>-0.2084899171504303</v>
+        <v>-0.2084899171504306</v>
       </c>
       <c r="J11">
-        <v>0.02368242847068997</v>
+        <v>0.02368242847068955</v>
       </c>
       <c r="K11">
-        <v>-0.08046845072681152</v>
+        <v>-0.08046845072681146</v>
       </c>
       <c r="L11">
-        <v>0.04855011685952836</v>
+        <v>0.04855011685952815</v>
       </c>
       <c r="M11">
-        <v>6.661338147750939e-16</v>
+        <v>9.992007221626409e-16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1079,34 +1079,34 @@
         <v>5.598365769910693</v>
       </c>
       <c r="D12">
-        <v>0.5426466111091036</v>
+        <v>0.5426466111091033</v>
       </c>
       <c r="E12">
-        <v>-1.115359443635558</v>
+        <v>-1.115359443635556</v>
       </c>
       <c r="F12">
-        <v>-0.662857901751328</v>
+        <v>-0.662857901751331</v>
       </c>
       <c r="G12">
-        <v>0.3004220051333322</v>
+        <v>0.3004220051333317</v>
       </c>
       <c r="H12">
-        <v>-0.1626364137015322</v>
+        <v>-0.1626364137015343</v>
       </c>
       <c r="I12">
-        <v>-0.4310201105625311</v>
+        <v>-0.4310201105625309</v>
       </c>
       <c r="J12">
-        <v>0.08689473389285984</v>
+        <v>0.08689473389285989</v>
       </c>
       <c r="K12">
-        <v>0.09844277408802223</v>
+        <v>0.09844277408802246</v>
       </c>
       <c r="L12">
-        <v>-0.01944888415312902</v>
+        <v>-0.01944888415312906</v>
       </c>
       <c r="M12">
-        <v>3.885780586188048e-16</v>
+        <v>3.608224830031759e-16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1123,31 +1123,31 @@
         <v>-1.326034703909637</v>
       </c>
       <c r="E13">
-        <v>0.8643004762577116</v>
+        <v>0.8643004762577106</v>
       </c>
       <c r="F13">
-        <v>0.4831182735138918</v>
+        <v>0.4831182735138942</v>
       </c>
       <c r="G13">
-        <v>0.2782037426291601</v>
+        <v>0.2782037426291558</v>
       </c>
       <c r="H13">
-        <v>-0.554122521457925</v>
+        <v>-0.5541225214579267</v>
       </c>
       <c r="I13">
         <v>-0.3455938872631801</v>
       </c>
       <c r="J13">
-        <v>-0.1836893617283923</v>
+        <v>-0.1836893617283922</v>
       </c>
       <c r="K13">
-        <v>0.08879889515456628</v>
+        <v>0.08879889515456729</v>
       </c>
       <c r="L13">
-        <v>0.01111923345104902</v>
+        <v>0.01111923345104915</v>
       </c>
       <c r="M13">
-        <v>5.551115123125783e-16</v>
+        <v>-1.665334536937735e-16</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1161,34 +1161,34 @@
         <v>5.600003817796717</v>
       </c>
       <c r="D14">
-        <v>0.4196294008666552</v>
+        <v>0.4196294008666553</v>
       </c>
       <c r="E14">
-        <v>-0.5501509240886883</v>
+        <v>-0.550150924088687</v>
       </c>
       <c r="F14">
-        <v>-0.3755298885277104</v>
+        <v>-0.3755298885277122</v>
       </c>
       <c r="G14">
-        <v>-0.385330648770331</v>
+        <v>-0.3853306487703306</v>
       </c>
       <c r="H14">
-        <v>-0.0119977473865634</v>
+        <v>-0.0119977473865607</v>
       </c>
       <c r="I14">
-        <v>-0.2111369747992213</v>
+        <v>-0.2111369747992216</v>
       </c>
       <c r="J14">
-        <v>0.07846228150824215</v>
+        <v>0.07846228150824258</v>
       </c>
       <c r="K14">
-        <v>0.08427260712469943</v>
+        <v>0.08427260712469958</v>
       </c>
       <c r="L14">
-        <v>-0.03578674004452428</v>
+        <v>-0.03578674004452431</v>
       </c>
       <c r="M14">
-        <v>5.551115123125783e-16</v>
+        <v>1.387778780781446e-16</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1202,34 +1202,34 @@
         <v>5.600053095749235</v>
       </c>
       <c r="D15">
-        <v>-1.510023087351577</v>
+        <v>-1.510023087351578</v>
       </c>
       <c r="E15">
-        <v>-0.4900706635283849</v>
+        <v>-0.4900706635283839</v>
       </c>
       <c r="F15">
-        <v>-0.3058195366181855</v>
+        <v>-0.3058195366181868</v>
       </c>
       <c r="G15">
-        <v>0.4926189818440789</v>
+        <v>0.4926189818440755</v>
       </c>
       <c r="H15">
-        <v>-0.5161790523078749</v>
+        <v>-0.5161790523078781</v>
       </c>
       <c r="I15">
-        <v>-0.07116203434597382</v>
+        <v>-0.07116203434597379</v>
       </c>
       <c r="J15">
-        <v>0.04404890545092418</v>
+        <v>0.04404890545092448</v>
       </c>
       <c r="K15">
-        <v>0.06658184978338305</v>
+        <v>0.06658184978338307</v>
       </c>
       <c r="L15">
-        <v>-0.03317139749272946</v>
+        <v>-0.03317139749272957</v>
       </c>
       <c r="M15">
-        <v>5.551115123125783e-16</v>
+        <v>-3.05311331771918e-16</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1243,34 +1243,34 @@
         <v>5.600127822754469</v>
       </c>
       <c r="D16">
-        <v>-0.6860165271166525</v>
+        <v>-0.6860165271166523</v>
       </c>
       <c r="E16">
-        <v>0.2025422526357094</v>
+        <v>0.2025422526357101</v>
       </c>
       <c r="F16">
-        <v>-0.08723283751666056</v>
+        <v>-0.08723283751666039</v>
       </c>
       <c r="G16">
-        <v>-0.5394628058682123</v>
+        <v>-0.5394628058682109</v>
       </c>
       <c r="H16">
-        <v>0.1858782433221844</v>
+        <v>0.1858782433221877</v>
       </c>
       <c r="I16">
-        <v>-0.5075681680821739</v>
+        <v>-0.5075681680821742</v>
       </c>
       <c r="J16">
-        <v>0.03893843288649816</v>
+        <v>0.03893843288649803</v>
       </c>
       <c r="K16">
-        <v>0.04579690436096703</v>
+        <v>0.04579690436096762</v>
       </c>
       <c r="L16">
-        <v>0.03262321424423491</v>
+        <v>0.03262321424423469</v>
       </c>
       <c r="M16">
-        <v>3.33066907387547e-16</v>
+        <v>-2.012279232133096e-16</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1284,34 +1284,34 @@
         <v>5.60036119386722</v>
       </c>
       <c r="D17">
-        <v>-0.5641492822743435</v>
+        <v>-0.564149282274342</v>
       </c>
       <c r="E17">
-        <v>1.034704879368681</v>
+        <v>1.034704879368676</v>
       </c>
       <c r="F17">
-        <v>1.725128365075246</v>
+        <v>1.725128365075249</v>
       </c>
       <c r="G17">
-        <v>-0.6696415346839293</v>
+        <v>-0.6696415346839267</v>
       </c>
       <c r="H17">
-        <v>0.3964537414848979</v>
+        <v>0.3964537414849027</v>
       </c>
       <c r="I17">
-        <v>-0.1936417211788576</v>
+        <v>-0.1936417211788584</v>
       </c>
       <c r="J17">
-        <v>-0.2175365713918622</v>
+        <v>-0.2175365713918615</v>
       </c>
       <c r="K17">
-        <v>0.07698146354159092</v>
+        <v>0.0769814635415918</v>
       </c>
       <c r="L17">
-        <v>0.05874283284997898</v>
+        <v>0.058742832849979</v>
       </c>
       <c r="M17">
-        <v>-3.33066907387547e-16</v>
+        <v>3.33066907387547e-16</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1328,31 +1328,31 @@
         <v>-4.637316995182615</v>
       </c>
       <c r="E18">
-        <v>-0.2397570783960669</v>
+        <v>-0.2397570783960773</v>
       </c>
       <c r="F18">
-        <v>3.9466896261951</v>
+        <v>3.946689626195102</v>
       </c>
       <c r="G18">
-        <v>1.645606708495412</v>
+        <v>1.645606708495415</v>
       </c>
       <c r="H18">
-        <v>0.5611920525573906</v>
+        <v>0.5611920525573798</v>
       </c>
       <c r="I18">
-        <v>0.1272039290895359</v>
+        <v>0.1272039290895352</v>
       </c>
       <c r="J18">
-        <v>-0.3282225034494723</v>
+        <v>-0.3282225034494719</v>
       </c>
       <c r="K18">
-        <v>-0.3054307556339655</v>
+        <v>-0.3054307556339641</v>
       </c>
       <c r="L18">
-        <v>-0.06746329110369743</v>
+        <v>-0.06746329110369703</v>
       </c>
       <c r="M18">
-        <v>-8.326672684688674e-16</v>
+        <v>8.500145032286355e-17</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1366,34 +1366,34 @@
         <v>5.601523390607094</v>
       </c>
       <c r="D19">
-        <v>0.5328227294322998</v>
+        <v>0.5328227294322999</v>
       </c>
       <c r="E19">
-        <v>-0.4140370011870104</v>
+        <v>-0.4140370011870087</v>
       </c>
       <c r="F19">
-        <v>-0.3803619434997143</v>
+        <v>-0.3803619434997161</v>
       </c>
       <c r="G19">
-        <v>-0.4674621340388274</v>
+        <v>-0.4674621340388266</v>
       </c>
       <c r="H19">
-        <v>0.0623785065639262</v>
+        <v>0.06237850656392961</v>
       </c>
       <c r="I19">
-        <v>-0.02598197184354236</v>
+        <v>-0.02598197184354297</v>
       </c>
       <c r="J19">
-        <v>-0.04767609332059712</v>
+        <v>-0.04767609332059633</v>
       </c>
       <c r="K19">
-        <v>0.08022945571987911</v>
+        <v>0.08022945571987937</v>
       </c>
       <c r="L19">
-        <v>-0.05506929618902756</v>
+        <v>-0.05506929618902773</v>
       </c>
       <c r="M19">
-        <v>3.33066907387547e-16</v>
+        <v>-4.163336342344337e-17</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1407,34 +1407,34 @@
         <v>5.602266998711832</v>
       </c>
       <c r="D20">
-        <v>0.2310579837456586</v>
+        <v>0.2310579837456594</v>
       </c>
       <c r="E20">
-        <v>0.876224716777753</v>
+        <v>0.8762247167777516</v>
       </c>
       <c r="F20">
-        <v>0.6337985393988342</v>
+        <v>0.6337985393988362</v>
       </c>
       <c r="G20">
-        <v>-1.080907014217364</v>
+        <v>-1.08090701421736</v>
       </c>
       <c r="H20">
-        <v>0.5146993354038151</v>
+        <v>0.5146993354038224</v>
       </c>
       <c r="I20">
-        <v>0.2052373309928499</v>
+        <v>0.2052373309928491</v>
       </c>
       <c r="J20">
-        <v>-0.1989597160697174</v>
+        <v>-0.1989597160697161</v>
       </c>
       <c r="K20">
-        <v>0.1090876573089498</v>
+        <v>0.1090876573089508</v>
       </c>
       <c r="L20">
-        <v>-0.01743092063920178</v>
+        <v>-0.01743092063920193</v>
       </c>
       <c r="M20">
-        <v>-4.440892098500626e-16</v>
+        <v>4.163336342344337e-16</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1448,34 +1448,34 @@
         <v>5.602793811724544</v>
       </c>
       <c r="D21">
-        <v>-1.196764306174058</v>
+        <v>-1.196764306174057</v>
       </c>
       <c r="E21">
-        <v>1.356456870167257</v>
+        <v>1.356456870167253</v>
       </c>
       <c r="F21">
-        <v>1.898431878865355</v>
+        <v>1.898431878865358</v>
       </c>
       <c r="G21">
-        <v>-0.6953584537206982</v>
+        <v>-0.6953584537206957</v>
       </c>
       <c r="H21">
-        <v>0.4479590907009861</v>
+        <v>0.4479590907009905</v>
       </c>
       <c r="I21">
-        <v>0.0844655172846349</v>
+        <v>0.08446551728463358</v>
       </c>
       <c r="J21">
-        <v>-0.07469273243605756</v>
+        <v>-0.07469273243605651</v>
       </c>
       <c r="K21">
-        <v>0.143853677477877</v>
+        <v>0.1438536774778778</v>
       </c>
       <c r="L21">
-        <v>-0.05624045130220952</v>
+        <v>-0.056240451302209</v>
       </c>
       <c r="M21">
-        <v>-3.33066907387547e-16</v>
+        <v>4.163336342344337e-16</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1489,34 +1489,34 @@
         <v>5.603702954193941</v>
       </c>
       <c r="D22">
-        <v>-1.678474168028218</v>
+        <v>-1.678474168028217</v>
       </c>
       <c r="E22">
-        <v>1.63628819418916</v>
+        <v>1.636288194189158</v>
       </c>
       <c r="F22">
-        <v>1.164473364464124</v>
+        <v>1.164473364464128</v>
       </c>
       <c r="G22">
-        <v>-1.225729483393172</v>
+        <v>-1.225729483393168</v>
       </c>
       <c r="H22">
-        <v>0.642789268419408</v>
+        <v>0.6427892684194156</v>
       </c>
       <c r="I22">
-        <v>0.0302668847079559</v>
+        <v>0.03026688470795462</v>
       </c>
       <c r="J22">
-        <v>-0.02337126698869383</v>
+        <v>-0.02337126698869299</v>
       </c>
       <c r="K22">
-        <v>-0.035707135170791</v>
+        <v>-0.03570713517079028</v>
       </c>
       <c r="L22">
-        <v>-0.04270386497122641</v>
+        <v>-0.04270386497122586</v>
       </c>
       <c r="M22">
-        <v>1.110223024625157e-16</v>
+        <v>9.436895709313831e-16</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1533,31 +1533,31 @@
         <v>-1.906420782160688</v>
       </c>
       <c r="E23">
-        <v>0.5171192747344775</v>
+        <v>0.5171192747344742</v>
       </c>
       <c r="F23">
         <v>1.341716054891416</v>
       </c>
       <c r="G23">
-        <v>-0.8050537442400022</v>
+        <v>-0.8050537442399996</v>
       </c>
       <c r="H23">
-        <v>0.3646159995751322</v>
+        <v>0.3646159995751372</v>
       </c>
       <c r="I23">
-        <v>-0.1375104194484351</v>
+        <v>-0.1375104194484364</v>
       </c>
       <c r="J23">
-        <v>-0.04299441007609855</v>
+        <v>-0.04299441007609858</v>
       </c>
       <c r="K23">
-        <v>-0.1396709946772564</v>
+        <v>-0.1396709946772557</v>
       </c>
       <c r="L23">
-        <v>0.03810816583183706</v>
+        <v>0.03810816583183702</v>
       </c>
       <c r="M23">
-        <v>-2.220446049250313e-16</v>
+        <v>4.336808689942018e-16</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1571,34 +1571,34 @@
         <v>5.603795657083984</v>
       </c>
       <c r="D24">
-        <v>-2.310188114725722</v>
+        <v>-2.310188114725721</v>
       </c>
       <c r="E24">
-        <v>0.7198060351869123</v>
+        <v>0.7198060351869093</v>
       </c>
       <c r="F24">
-        <v>1.14418139987677</v>
+        <v>1.144181399876772</v>
       </c>
       <c r="G24">
-        <v>-0.3848337933333215</v>
+        <v>-0.3848337933333216</v>
       </c>
       <c r="H24">
-        <v>-0.01386205837270227</v>
+        <v>-0.01386205837269971</v>
       </c>
       <c r="I24">
         <v>-0.2234867189124846</v>
       </c>
       <c r="J24">
-        <v>-0.1628837375246664</v>
+        <v>-0.1628837375246659</v>
       </c>
       <c r="K24">
-        <v>0.13601192015162</v>
+        <v>0.1360119201516208</v>
       </c>
       <c r="L24">
-        <v>0.06771627263118507</v>
+        <v>0.06771627263118526</v>
       </c>
       <c r="M24">
-        <v>6.661338147750939e-16</v>
+        <v>-3.05311331771918e-16</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1615,31 +1615,31 @@
         <v>-1.8673433484625</v>
       </c>
       <c r="E25">
-        <v>0.08094526822559651</v>
+        <v>0.08094526822559636</v>
       </c>
       <c r="F25">
-        <v>0.2785052170260856</v>
+        <v>0.2785052170260865</v>
       </c>
       <c r="G25">
-        <v>0.9555993872787498</v>
+        <v>0.9555993872787483</v>
       </c>
       <c r="H25">
-        <v>-0.191275969326883</v>
+        <v>-0.1912759693268891</v>
       </c>
       <c r="I25">
         <v>0.120772395967911</v>
       </c>
       <c r="J25">
-        <v>-0.05566032461698316</v>
+        <v>-0.05566032461698204</v>
       </c>
       <c r="K25">
-        <v>0.1670083332681734</v>
+        <v>0.1670083332681738</v>
       </c>
       <c r="L25">
-        <v>0.06271324021911345</v>
+        <v>0.06271324021911354</v>
       </c>
       <c r="M25">
-        <v>2.775557561562891e-17</v>
+        <v>-1.304512053934559e-15</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1653,34 +1653,34 @@
         <v>5.606562697551281</v>
       </c>
       <c r="D26">
-        <v>-0.6565335685934941</v>
+        <v>-0.6565335685934947</v>
       </c>
       <c r="E26">
-        <v>-0.08277113151397057</v>
+        <v>-0.08277113151396806</v>
       </c>
       <c r="F26">
-        <v>-0.8641243525905123</v>
+        <v>-0.8641243525905132</v>
       </c>
       <c r="G26">
-        <v>-0.03538538109279877</v>
+        <v>-0.03538538109279916</v>
       </c>
       <c r="H26">
         <v>-0.126364541516044</v>
       </c>
       <c r="I26">
-        <v>-0.09375234788993952</v>
+        <v>-0.09375234788994019</v>
       </c>
       <c r="J26">
         <v>0.1727547689385831</v>
       </c>
       <c r="K26">
-        <v>-0.1336627520107567</v>
+        <v>-0.1336627520107568</v>
       </c>
       <c r="L26">
-        <v>-0.07523857228321681</v>
+        <v>-0.07523857228321712</v>
       </c>
       <c r="M26">
-        <v>5.551115123125783e-16</v>
+        <v>5.551115123125783e-17</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1694,34 +1694,34 @@
         <v>5.606864600812729</v>
       </c>
       <c r="D27">
-        <v>-4.1485899564854</v>
+        <v>-4.148589956485401</v>
       </c>
       <c r="E27">
-        <v>0.223011833885889</v>
+        <v>0.2230118338858872</v>
       </c>
       <c r="F27">
-        <v>0.940129807559414</v>
+        <v>0.9401298075594147</v>
       </c>
       <c r="G27">
-        <v>0.2376037674349239</v>
+        <v>0.2376037674349184</v>
       </c>
       <c r="H27">
-        <v>-0.7015798890268508</v>
+        <v>-0.7015798890268524</v>
       </c>
       <c r="I27">
-        <v>0.5856588420227099</v>
+        <v>0.5856588420227089</v>
       </c>
       <c r="J27">
-        <v>0.2234835155237879</v>
+        <v>0.2234835155237881</v>
       </c>
       <c r="K27">
-        <v>-0.1263977652913551</v>
+        <v>-0.1263977652913557</v>
       </c>
       <c r="L27">
-        <v>0.01654767092090772</v>
+        <v>0.0165476709209072</v>
       </c>
       <c r="M27">
-        <v>3.885780586188048e-16</v>
+        <v>-3.33066907387547e-16</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1735,34 +1735,34 @@
         <v>5.607417783737577</v>
       </c>
       <c r="D28">
-        <v>-1.000477033660355</v>
+        <v>-1.000477033660354</v>
       </c>
       <c r="E28">
-        <v>0.5559680128546461</v>
+        <v>0.5559680128546483</v>
       </c>
       <c r="F28">
-        <v>-0.5604641343803444</v>
+        <v>-0.5604641343803437</v>
       </c>
       <c r="G28">
-        <v>-0.7745440591752372</v>
+        <v>-0.7745440591752383</v>
       </c>
       <c r="H28">
-        <v>-0.2126711809263725</v>
+        <v>-0.2126711809263681</v>
       </c>
       <c r="I28">
-        <v>0.02278470725169911</v>
+        <v>0.02278470725169828</v>
       </c>
       <c r="J28">
-        <v>0.1148483101425512</v>
+        <v>0.114848310142552</v>
       </c>
       <c r="K28">
-        <v>0.1203221672325636</v>
+        <v>0.1203221672325634</v>
       </c>
       <c r="L28">
-        <v>0.007513609739303543</v>
+        <v>0.007513609739303762</v>
       </c>
       <c r="M28">
-        <v>5.828670879282072e-16</v>
+        <v>9.436895709313831e-16</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1776,34 +1776,34 @@
         <v>5.608895493658637</v>
       </c>
       <c r="D29">
-        <v>-0.3344902388661062</v>
+        <v>-0.334490238866106</v>
       </c>
       <c r="E29">
-        <v>0.08427312942069487</v>
+        <v>0.0842731294206959</v>
       </c>
       <c r="F29">
-        <v>-0.2484026085047544</v>
+        <v>-0.2484026085047545</v>
       </c>
       <c r="G29">
-        <v>-0.3157986071957091</v>
+        <v>-0.3157986071957096</v>
       </c>
       <c r="H29">
-        <v>-0.09928897241475426</v>
+        <v>-0.09928897241475181</v>
       </c>
       <c r="I29">
-        <v>0.08886018549923091</v>
+        <v>0.08886018549923086</v>
       </c>
       <c r="J29">
-        <v>-0.1393112597627374</v>
+        <v>-0.139311259762737</v>
       </c>
       <c r="K29">
-        <v>-0.02496250021027419</v>
+        <v>-0.02496250021027376</v>
       </c>
       <c r="L29">
-        <v>0.03921124505109365</v>
+        <v>0.03921124505109301</v>
       </c>
       <c r="M29">
-        <v>3.747002708109903e-16</v>
+        <v>-1.021752127350339e-15</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1817,34 +1817,34 @@
         <v>5.608420949100326</v>
       </c>
       <c r="D30">
-        <v>0.2433866001371426</v>
+        <v>0.2433866001371428</v>
       </c>
       <c r="E30">
-        <v>0.265496666933905</v>
+        <v>0.2654966669339075</v>
       </c>
       <c r="F30">
-        <v>-0.6963669886060793</v>
+        <v>-0.6963669886060789</v>
       </c>
       <c r="G30">
-        <v>-0.2761812610932336</v>
+        <v>-0.2761812610932316</v>
       </c>
       <c r="H30">
-        <v>0.2089441084907717</v>
+        <v>0.2089441084907734</v>
       </c>
       <c r="I30">
-        <v>-0.08631498604017759</v>
+        <v>-0.08631498604017772</v>
       </c>
       <c r="J30">
-        <v>-0.1428002254461509</v>
+        <v>-0.1428002254461507</v>
       </c>
       <c r="K30">
-        <v>-0.09839309922761583</v>
+        <v>-0.0983930992276153</v>
       </c>
       <c r="L30">
-        <v>0.08937066966156496</v>
+        <v>0.08937066966156457</v>
       </c>
       <c r="M30">
-        <v>4.85722573273506e-16</v>
+        <v>-2.914335439641036e-16</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1858,34 +1858,34 @@
         <v>5.611264392336714</v>
       </c>
       <c r="D31">
-        <v>-1.293497833083575</v>
+        <v>-1.293497833083576</v>
       </c>
       <c r="E31">
-        <v>0.01521638116983086</v>
+        <v>0.01521638116983234</v>
       </c>
       <c r="F31">
-        <v>-0.5233832136178215</v>
+        <v>-0.5233832136178217</v>
       </c>
       <c r="G31">
-        <v>0.07556494127354618</v>
+        <v>0.07556494127354493</v>
       </c>
       <c r="H31">
-        <v>-0.223480042762732</v>
+        <v>-0.2234800427627326</v>
       </c>
       <c r="I31">
-        <v>-0.3107130031145041</v>
+        <v>-0.3107130031145043</v>
       </c>
       <c r="J31">
-        <v>-0.01905345460873219</v>
+        <v>-0.01905345460873194</v>
       </c>
       <c r="K31">
-        <v>-0.08520943656569835</v>
+        <v>-0.08520943656569781</v>
       </c>
       <c r="L31">
-        <v>0.1063927634525275</v>
+        <v>0.106392763452527</v>
       </c>
       <c r="M31">
-        <v>3.33066907387547e-16</v>
+        <v>4.718447854656915e-16</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1899,34 +1899,34 @@
         <v>5.610068732569744</v>
       </c>
       <c r="D32">
-        <v>-0.169684204416484</v>
+        <v>-0.1696842044164835</v>
       </c>
       <c r="E32">
-        <v>0.7387707280954801</v>
+        <v>0.7387707280954842</v>
       </c>
       <c r="F32">
-        <v>-1.343067281818621</v>
+        <v>-1.343067281818619</v>
       </c>
       <c r="G32">
-        <v>-0.0972843385823573</v>
+        <v>-0.09728433858235809</v>
       </c>
       <c r="H32">
-        <v>-0.1516540979779376</v>
+        <v>-0.1516540979779368</v>
       </c>
       <c r="I32">
-        <v>-0.05095404389831607</v>
+        <v>-0.05095404389831594</v>
       </c>
       <c r="J32">
-        <v>-0.1247944796177558</v>
+        <v>-0.1247944796177557</v>
       </c>
       <c r="K32">
-        <v>-0.1365396369027096</v>
+        <v>-0.1365396369027093</v>
       </c>
       <c r="L32">
-        <v>0.1867524391299944</v>
+        <v>0.1867524391299938</v>
       </c>
       <c r="M32">
-        <v>-3.33066907387547e-16</v>
+        <v>3.05311331771918e-16</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1940,34 +1940,34 @@
         <v>5.611141756695298</v>
       </c>
       <c r="D33">
-        <v>-0.1693274252910658</v>
+        <v>-0.1693274252910659</v>
       </c>
       <c r="E33">
-        <v>-0.3612405695371561</v>
+        <v>-0.3612405695371551</v>
       </c>
       <c r="F33">
-        <v>-0.3531957424050685</v>
+        <v>-0.3531957424050701</v>
       </c>
       <c r="G33">
-        <v>-0.3834673958769206</v>
+        <v>-0.3834673958769224</v>
       </c>
       <c r="H33">
-        <v>-0.3063306528025543</v>
+        <v>-0.3063306528025516</v>
       </c>
       <c r="I33">
-        <v>0.2262687993467397</v>
+        <v>0.226268799346739</v>
       </c>
       <c r="J33">
-        <v>0.08655147468889021</v>
+        <v>0.08655147468889067</v>
       </c>
       <c r="K33">
-        <v>0.004342091994078802</v>
+        <v>0.004342091994078926</v>
       </c>
       <c r="L33">
-        <v>-0.05150229980985909</v>
+        <v>-0.05150229980985949</v>
       </c>
       <c r="M33">
-        <v>6.661338147750939e-16</v>
+        <v>4.996003610813204e-16</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1981,34 +1981,34 @@
         <v>5.613429376086693</v>
       </c>
       <c r="D34">
-        <v>-0.955378342411083</v>
+        <v>-0.9553783424110833</v>
       </c>
       <c r="E34">
-        <v>0.09114021688562163</v>
+        <v>0.09114021688562106</v>
       </c>
       <c r="F34">
-        <v>0.2219704522574963</v>
+        <v>0.2219704522574966</v>
       </c>
       <c r="G34">
-        <v>-0.08598500811170993</v>
+        <v>-0.08598500811170827</v>
       </c>
       <c r="H34">
-        <v>0.2359428906552657</v>
+        <v>0.2359428906552661</v>
       </c>
       <c r="I34">
-        <v>-0.06616191626533027</v>
+        <v>-0.06616191626533112</v>
       </c>
       <c r="J34">
-        <v>0.1377596511396648</v>
+        <v>0.1377596511396644</v>
       </c>
       <c r="K34">
-        <v>-0.199461961571684</v>
+        <v>-0.1994619615716837</v>
       </c>
       <c r="L34">
-        <v>0.03335973632174824</v>
+        <v>0.03335973632174784</v>
       </c>
       <c r="M34">
-        <v>8.673617379884035e-16</v>
+        <v>1.07552855510562e-16</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2022,34 +2022,34 @@
         <v>5.611264799024002</v>
       </c>
       <c r="D35">
-        <v>-2.355581405572554</v>
+        <v>-2.355581405572555</v>
       </c>
       <c r="E35">
-        <v>-0.6994972312124866</v>
+        <v>-0.6994972312124904</v>
       </c>
       <c r="F35">
-        <v>1.400488290381762</v>
+        <v>1.40048829038176</v>
       </c>
       <c r="G35">
-        <v>-0.02822664885775329</v>
+        <v>-0.02822664885775386</v>
       </c>
       <c r="H35">
-        <v>-0.08958616305154002</v>
+        <v>-0.08958616305154019</v>
       </c>
       <c r="I35">
-        <v>-0.1117532024752809</v>
+        <v>-0.1117532024752816</v>
       </c>
       <c r="J35">
-        <v>0.1802807713264262</v>
+        <v>0.1802807713264259</v>
       </c>
       <c r="K35">
-        <v>-0.153972585533602</v>
+        <v>-0.1539725855336018</v>
       </c>
       <c r="L35">
-        <v>-0.03955035346564971</v>
+        <v>-0.03955035346564989</v>
       </c>
       <c r="M35">
-        <v>1.193489751472043e-15</v>
+        <v>3.05311331771918e-16</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2063,34 +2063,34 @@
         <v>5.614126365701509</v>
       </c>
       <c r="D36">
-        <v>-0.3356724282062879</v>
+        <v>-0.3356724282062878</v>
       </c>
       <c r="E36">
-        <v>0.02547692310897136</v>
+        <v>0.02547692310897143</v>
       </c>
       <c r="F36">
-        <v>-0.05007884810202088</v>
+        <v>-0.05007884810202085</v>
       </c>
       <c r="G36">
-        <v>0.0004950597576745798</v>
+        <v>0.0004950597576740397</v>
       </c>
       <c r="H36">
-        <v>-0.1020775784349151</v>
+        <v>-0.1020775784349153</v>
       </c>
       <c r="I36">
-        <v>-0.4004897862187656</v>
+        <v>-0.4004897862187659</v>
       </c>
       <c r="J36">
-        <v>0.1257592747573482</v>
+        <v>0.1257592747573478</v>
       </c>
       <c r="K36">
-        <v>-0.05100240972805959</v>
+        <v>-0.05100240972805928</v>
       </c>
       <c r="L36">
-        <v>0.02939302351450855</v>
+        <v>0.02939302351450822</v>
       </c>
       <c r="M36">
-        <v>3.122502256758253e-16</v>
+        <v>7.702172233337023e-16</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2104,34 +2104,34 @@
         <v>5.602296254214171</v>
       </c>
       <c r="D37">
-        <v>0.1400409909241434</v>
+        <v>0.1400409909241433</v>
       </c>
       <c r="E37">
-        <v>0.01598059916299211</v>
+        <v>0.01598059916299617</v>
       </c>
       <c r="F37">
         <v>-1.442566189167489</v>
       </c>
       <c r="G37">
-        <v>0.7618078147605105</v>
+        <v>0.7618078147605114</v>
       </c>
       <c r="H37">
-        <v>0.07629588449430394</v>
+        <v>0.0762958844942993</v>
       </c>
       <c r="I37">
-        <v>-0.1999521980452723</v>
+        <v>-0.1999521980452719</v>
       </c>
       <c r="J37">
-        <v>-0.2625398764363354</v>
+        <v>-0.262539876436335</v>
       </c>
       <c r="K37">
-        <v>-0.1776402391602675</v>
+        <v>-0.1776402391602663</v>
       </c>
       <c r="L37">
-        <v>-0.08461332392829096</v>
+        <v>-0.08461332392829157</v>
       </c>
       <c r="M37">
-        <v>3.885780586188048e-16</v>
+        <v>-4.85722573273506e-16</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2148,31 +2148,31 @@
         <v>1.422420041728365</v>
       </c>
       <c r="E38">
-        <v>-0.08113067828784717</v>
+        <v>-0.08113067828784236</v>
       </c>
       <c r="F38">
-        <v>-1.690211473034176</v>
+        <v>-1.690211473034177</v>
       </c>
       <c r="G38">
-        <v>-0.3270237845974509</v>
+        <v>-0.3270237845974459</v>
       </c>
       <c r="H38">
-        <v>0.5676606156003553</v>
+        <v>0.5676606156003576</v>
       </c>
       <c r="I38">
-        <v>-0.01008151968009812</v>
+        <v>-0.01008151968009763</v>
       </c>
       <c r="J38">
-        <v>-0.2087974906939786</v>
+        <v>-0.2087974906939774</v>
       </c>
       <c r="K38">
-        <v>0.08108818634016531</v>
+        <v>0.08108818634016582</v>
       </c>
       <c r="L38">
-        <v>-0.1288102495433116</v>
+        <v>-0.1288102495433118</v>
       </c>
       <c r="M38">
-        <v>6.106226635438361e-16</v>
+        <v>-1.110223024625157e-16</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2189,31 +2189,31 @@
         <v>2.629351092761572</v>
       </c>
       <c r="E39">
-        <v>-0.7281093804983577</v>
+        <v>-0.7281093804983533</v>
       </c>
       <c r="F39">
-        <v>-1.684532444973545</v>
+        <v>-1.684532444973548</v>
       </c>
       <c r="G39">
-        <v>0.05746864538581337</v>
+        <v>0.0574686453858126</v>
       </c>
       <c r="H39">
-        <v>-0.1713579429060079</v>
+        <v>-0.1713579429060068</v>
       </c>
       <c r="I39">
-        <v>0.3695582799071108</v>
+        <v>0.3695582799071111</v>
       </c>
       <c r="J39">
-        <v>-0.3690613769158473</v>
+        <v>-0.3690613769158463</v>
       </c>
       <c r="K39">
-        <v>-0.1162661346235029</v>
+        <v>-0.1162661346235021</v>
       </c>
       <c r="L39">
-        <v>0.03876957133183039</v>
+        <v>0.03876957133182978</v>
       </c>
       <c r="M39">
-        <v>7.216449660063518e-16</v>
+        <v>-3.33066907387547e-16</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2227,34 +2227,34 @@
         <v>5.60811216050709</v>
       </c>
       <c r="D40">
-        <v>0.8344739548459871</v>
+        <v>0.834473954845987</v>
       </c>
       <c r="E40">
-        <v>-0.5658254932249654</v>
+        <v>-0.5658254932249626</v>
       </c>
       <c r="F40">
-        <v>-0.9626685345918433</v>
+        <v>-0.9626685345918458</v>
       </c>
       <c r="G40">
-        <v>-0.5664105884330044</v>
+        <v>-0.5664105884330033</v>
       </c>
       <c r="H40">
-        <v>0.06442514861641094</v>
+        <v>0.06442514861641446</v>
       </c>
       <c r="I40">
-        <v>0.1438664835590268</v>
+        <v>0.1438664835590261</v>
       </c>
       <c r="J40">
-        <v>0.0514067067913554</v>
+        <v>0.05140670679135564</v>
       </c>
       <c r="K40">
-        <v>-0.1140670099269707</v>
+        <v>-0.1140670099269708</v>
       </c>
       <c r="L40">
-        <v>-0.01571887420071356</v>
+        <v>-0.01571887420071394</v>
       </c>
       <c r="M40">
-        <v>9.436895709313831e-16</v>
+        <v>3.05311331771918e-16</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2268,34 +2268,34 @@
         <v>5.606212235503977</v>
       </c>
       <c r="D41">
-        <v>-2.921043138175723</v>
+        <v>-2.921043138175724</v>
       </c>
       <c r="E41">
-        <v>-0.4872989237778983</v>
+        <v>-0.4872989237779079</v>
       </c>
       <c r="F41">
-        <v>3.60908323606732</v>
+        <v>3.609083236067321</v>
       </c>
       <c r="G41">
-        <v>0.8731573690024635</v>
+        <v>0.873157369002465</v>
       </c>
       <c r="H41">
-        <v>0.3308657321886819</v>
+        <v>0.3308657321886756</v>
       </c>
       <c r="I41">
-        <v>0.1618549269007586</v>
+        <v>0.161854926900757</v>
       </c>
       <c r="J41">
-        <v>0.3914651280646855</v>
+        <v>0.3914651280646866</v>
       </c>
       <c r="K41">
-        <v>0.1857812866990438</v>
+        <v>0.1857812866990431</v>
       </c>
       <c r="L41">
-        <v>0.06961219572164593</v>
+        <v>0.06961219572164665</v>
       </c>
       <c r="M41">
-        <v>-4.440892098500626e-16</v>
+        <v>3.354521521670151e-16</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2309,34 +2309,34 @@
         <v>5.604550810725294</v>
       </c>
       <c r="D42">
-        <v>1.209589953050894</v>
+        <v>1.209589953050895</v>
       </c>
       <c r="E42">
-        <v>-0.3667578233878556</v>
+        <v>-0.366757823387853</v>
       </c>
       <c r="F42">
-        <v>-0.9340798629878089</v>
+        <v>-0.9340798629878099</v>
       </c>
       <c r="G42">
-        <v>0.1154638582476807</v>
+        <v>0.1154638582476848</v>
       </c>
       <c r="H42">
-        <v>0.5256626444096882</v>
+        <v>0.5256626444096875</v>
       </c>
       <c r="I42">
-        <v>-0.1382375448696926</v>
+        <v>-0.138237544869693</v>
       </c>
       <c r="J42">
-        <v>0.1638061234776916</v>
+        <v>0.1638061234776921</v>
       </c>
       <c r="K42">
-        <v>-0.1036687390332923</v>
+        <v>-0.1036687390332921</v>
       </c>
       <c r="L42">
-        <v>-0.05005848183742077</v>
+        <v>-0.05005848183742109</v>
       </c>
       <c r="M42">
-        <v>6.106226635438361e-16</v>
+        <v>2.498001805406602e-16</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2350,34 +2350,34 @@
         <v>5.606676167416156</v>
       </c>
       <c r="D43">
-        <v>0.3822337114682909</v>
+        <v>0.3822337114682903</v>
       </c>
       <c r="E43">
-        <v>-2.315977149886704</v>
+        <v>-2.315977149886702</v>
       </c>
       <c r="F43">
-        <v>-0.5923971435316614</v>
+        <v>-0.5923971435316678</v>
       </c>
       <c r="G43">
-        <v>-0.5707143620519848</v>
+        <v>-0.5707143620519866</v>
       </c>
       <c r="H43">
-        <v>-0.4035091048241018</v>
+        <v>-0.4035091048240975</v>
       </c>
       <c r="I43">
-        <v>0.6174926166477883</v>
+        <v>0.6174926166477881</v>
       </c>
       <c r="J43">
-        <v>-0.07741715693719071</v>
+        <v>-0.07741715693718985</v>
       </c>
       <c r="K43">
-        <v>-0.004874772158190217</v>
+        <v>-0.004874772158190995</v>
       </c>
       <c r="L43">
-        <v>0.0855040528862273</v>
+        <v>0.08550405288622687</v>
       </c>
       <c r="M43">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2391,34 +2391,34 @@
         <v>5.609498753555931</v>
       </c>
       <c r="D44">
-        <v>-0.2143939096405658</v>
+        <v>-0.2143939096405661</v>
       </c>
       <c r="E44">
-        <v>-0.2327829897281743</v>
+        <v>-0.2327829897281727</v>
       </c>
       <c r="F44">
-        <v>-0.4601800461982919</v>
+        <v>-0.4601800461982929</v>
       </c>
       <c r="G44">
-        <v>0.2928980012864461</v>
+        <v>0.2928980012864445</v>
       </c>
       <c r="H44">
-        <v>-0.2689711235768401</v>
+        <v>-0.2689711235768414</v>
       </c>
       <c r="I44">
-        <v>0.04579767140502988</v>
+        <v>0.04579767140502938</v>
       </c>
       <c r="J44">
-        <v>0.1428691189422076</v>
+        <v>0.1428691189422084</v>
       </c>
       <c r="K44">
-        <v>0.03241764352904438</v>
+        <v>0.03241764352904389</v>
       </c>
       <c r="L44">
-        <v>0.02415765858143639</v>
+        <v>0.02415765858143623</v>
       </c>
       <c r="M44">
-        <v>6.38378239159465e-16</v>
+        <v>-3.191891195797325e-16</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2432,34 +2432,34 @@
         <v>5.609460466781855</v>
       </c>
       <c r="D45">
-        <v>1.314383099785404</v>
+        <v>1.314383099785403</v>
       </c>
       <c r="E45">
-        <v>-1.928071789996788</v>
+        <v>-1.928071789996786</v>
       </c>
       <c r="F45">
-        <v>-0.4148803501957807</v>
+        <v>-0.4148803501957853</v>
       </c>
       <c r="G45">
-        <v>0.6852940668037729</v>
+        <v>0.6852940668037745</v>
       </c>
       <c r="H45">
-        <v>0.0415799177129245</v>
+        <v>0.0415799177129205</v>
       </c>
       <c r="I45">
-        <v>0.1881190967473103</v>
+        <v>0.1881190967473108</v>
       </c>
       <c r="J45">
-        <v>0.01979658048125902</v>
+        <v>0.01979658048126091</v>
       </c>
       <c r="K45">
-        <v>0.3137264002890816</v>
+        <v>0.3137264002890813</v>
       </c>
       <c r="L45">
-        <v>0.006256059172024479</v>
+        <v>0.006256059172024486</v>
       </c>
       <c r="M45">
-        <v>5.551115123125783e-16</v>
+        <v>-3.885780586188048e-16</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2473,34 +2473,34 @@
         <v>5.609490391007031</v>
       </c>
       <c r="D46">
-        <v>3.646940335787379</v>
+        <v>3.64694033578738</v>
       </c>
       <c r="E46">
-        <v>-1.422833902256153</v>
+        <v>-1.422833902256151</v>
       </c>
       <c r="F46">
-        <v>-0.6925341047208743</v>
+        <v>-0.6925341047208774</v>
       </c>
       <c r="G46">
-        <v>0.4568393659342196</v>
+        <v>0.4568393659342323</v>
       </c>
       <c r="H46">
-        <v>1.712038327965839</v>
+        <v>1.712038327965836</v>
       </c>
       <c r="I46">
-        <v>0.2248794161577153</v>
+        <v>0.2248794161577146</v>
       </c>
       <c r="J46">
-        <v>0.2667940870573987</v>
+        <v>0.2667940870574006</v>
       </c>
       <c r="K46">
-        <v>0.0420902972921797</v>
+        <v>0.04209029729217934</v>
       </c>
       <c r="L46">
-        <v>0.06817587726800005</v>
+        <v>0.06817587726799987</v>
       </c>
       <c r="M46">
-        <v>8.673617379884035e-17</v>
+        <v>3.33066907387547e-16</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2517,31 +2517,31 @@
         <v>1.037802670955982</v>
       </c>
       <c r="E47">
-        <v>-1.262838192619179</v>
+        <v>-1.262838192619175</v>
       </c>
       <c r="F47">
-        <v>-1.154467153408726</v>
+        <v>-1.154467153408729</v>
       </c>
       <c r="G47">
-        <v>0.1594112924966819</v>
+        <v>0.1594112924966835</v>
       </c>
       <c r="H47">
-        <v>0.1246657132008827</v>
+        <v>0.1246657132008818</v>
       </c>
       <c r="I47">
-        <v>-0.05387194619152458</v>
+        <v>-0.05387194619152446</v>
       </c>
       <c r="J47">
-        <v>0.1628932455995337</v>
+        <v>0.1628932455995348</v>
       </c>
       <c r="K47">
-        <v>0.191472678990263</v>
+        <v>0.1914726789902627</v>
       </c>
       <c r="L47">
-        <v>0.0139453873728574</v>
+        <v>0.01394538737285733</v>
       </c>
       <c r="M47">
-        <v>8.881784197001252e-16</v>
+        <v>2.775557561562891e-16</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2555,34 +2555,34 @@
         <v>5.612659722969409</v>
       </c>
       <c r="D48">
-        <v>0.29444259133803</v>
+        <v>0.2944425913380295</v>
       </c>
       <c r="E48">
-        <v>-1.844641863452566</v>
+        <v>-1.844641863452563</v>
       </c>
       <c r="F48">
-        <v>-0.9380038592216161</v>
+        <v>-0.9380038592216212</v>
       </c>
       <c r="G48">
-        <v>0.0755736118251841</v>
+        <v>0.07557361182518643</v>
       </c>
       <c r="H48">
-        <v>0.1903491322040378</v>
+        <v>0.1903491322040373</v>
       </c>
       <c r="I48">
-        <v>0.173314863848954</v>
+        <v>0.1733148638489536</v>
       </c>
       <c r="J48">
-        <v>0.2987533478650844</v>
+        <v>0.2987533478650851</v>
       </c>
       <c r="K48">
-        <v>-0.0645873792458405</v>
+        <v>-0.0645873792458414</v>
       </c>
       <c r="L48">
-        <v>-0.01051406950025599</v>
+        <v>-0.01051406950025646</v>
       </c>
       <c r="M48">
-        <v>7.771561172376096e-16</v>
+        <v>5.273559366969494e-16</v>
       </c>
     </row>
   </sheetData>
@@ -2650,31 +2650,31 @@
         <v>5.608822868711708</v>
       </c>
       <c r="D2">
-        <v>3.894945420108096</v>
+        <v>3.894945420108105</v>
       </c>
       <c r="E2">
-        <v>6.664721946801873</v>
+        <v>6.664721946801871</v>
       </c>
       <c r="F2">
-        <v>0.2613189946304527</v>
+        <v>0.2613189946304557</v>
       </c>
       <c r="G2">
         <v>-1.687983592873498</v>
       </c>
       <c r="H2">
-        <v>0.2193453336045219</v>
+        <v>0.2193453336045212</v>
       </c>
       <c r="I2">
         <v>0.63755539041111</v>
       </c>
       <c r="J2">
-        <v>0.1270053262830063</v>
+        <v>0.127005326283006</v>
       </c>
       <c r="K2">
         <v>-0.2184754029373797</v>
       </c>
       <c r="L2">
-        <v>0.07508208808755007</v>
+        <v>0.07508208808755024</v>
       </c>
       <c r="M2">
         <v>-8.881784197001252e-16</v>
@@ -2691,34 +2691,34 @@
         <v>5.608021749162098</v>
       </c>
       <c r="D3">
-        <v>-8.404135798668808</v>
+        <v>-8.404135798668804</v>
       </c>
       <c r="E3">
-        <v>3.955991098207808</v>
+        <v>3.955991098207816</v>
       </c>
       <c r="F3">
-        <v>-0.2708435880682755</v>
+        <v>-0.2708435880682749</v>
       </c>
       <c r="G3">
-        <v>0.3321542135826053</v>
+        <v>0.3321542135826051</v>
       </c>
       <c r="H3">
-        <v>-0.5386381079979345</v>
+        <v>-0.538638107997934</v>
       </c>
       <c r="I3">
-        <v>-0.14242102387735</v>
+        <v>-0.1424210238773502</v>
       </c>
       <c r="J3">
         <v>0.2179123470132865</v>
       </c>
       <c r="K3">
-        <v>-0.1764913408025995</v>
+        <v>-0.1764913408026005</v>
       </c>
       <c r="L3">
-        <v>-0.01386062411453768</v>
+        <v>-0.01386062411453876</v>
       </c>
       <c r="M3">
-        <v>1.720845688168993e-15</v>
+        <v>-1.554312234475219e-15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2732,34 +2732,34 @@
         <v>5.605535331798482</v>
       </c>
       <c r="D4">
-        <v>3.163109938454599</v>
+        <v>3.163109938454609</v>
       </c>
       <c r="E4">
-        <v>6.439970155722474</v>
+        <v>6.43997015572247</v>
       </c>
       <c r="F4">
-        <v>-0.4287491213975232</v>
+        <v>-0.4287491213975196</v>
       </c>
       <c r="G4">
-        <v>-0.03759074240627986</v>
+        <v>-0.03759074240627843</v>
       </c>
       <c r="H4">
-        <v>-0.2980501146234852</v>
+        <v>-0.2980501146234856</v>
       </c>
       <c r="I4">
-        <v>0.4477408964720255</v>
+        <v>0.4477408964720259</v>
       </c>
       <c r="J4">
-        <v>0.08399123197464632</v>
+        <v>0.08399123197464597</v>
       </c>
       <c r="K4">
-        <v>-0.02311849630023738</v>
+        <v>-0.02311849630023752</v>
       </c>
       <c r="L4">
-        <v>-0.1014698765089325</v>
+        <v>-0.1014698765089332</v>
       </c>
       <c r="M4">
-        <v>-4.440892098500626e-16</v>
+        <v>-5.551115123125783e-16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2773,34 +2773,34 @@
         <v>5.599293527974555</v>
       </c>
       <c r="D5">
-        <v>-7.664980364482197</v>
+        <v>-7.664980364482196</v>
       </c>
       <c r="E5">
-        <v>2.880939923514724</v>
+        <v>2.880939923514731</v>
       </c>
       <c r="F5">
-        <v>-0.2585062718711995</v>
+        <v>-0.2585062718711994</v>
       </c>
       <c r="G5">
-        <v>0.9419550439497076</v>
+        <v>0.9419550439497079</v>
       </c>
       <c r="H5">
-        <v>-1.050082294559069</v>
+        <v>-1.050082294559068</v>
       </c>
       <c r="I5">
-        <v>-0.4500608947739617</v>
+        <v>-0.4500608947739622</v>
       </c>
       <c r="J5">
-        <v>-0.04749810535623423</v>
+        <v>-0.04749810535623413</v>
       </c>
       <c r="K5">
-        <v>0.01050258539964199</v>
+        <v>0.01050258539964117</v>
       </c>
       <c r="L5">
-        <v>-0.1172319679454375</v>
+        <v>-0.117231967945438</v>
       </c>
       <c r="M5">
-        <v>2.220446049250313e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2814,34 +2814,34 @@
         <v>5.598278676394689</v>
       </c>
       <c r="D6">
-        <v>-0.8346233822883256</v>
+        <v>-0.8346233822883197</v>
       </c>
       <c r="E6">
         <v>5.307301418790534</v>
       </c>
       <c r="F6">
-        <v>7.779099553996503</v>
+        <v>7.779099553996501</v>
       </c>
       <c r="G6">
-        <v>1.079949927002082</v>
+        <v>1.07994992700208</v>
       </c>
       <c r="H6">
-        <v>-1.151352817912758</v>
+        <v>-1.151352817912757</v>
       </c>
       <c r="I6">
-        <v>0.1302925263108324</v>
+        <v>0.1302925263108325</v>
       </c>
       <c r="J6">
-        <v>0.7729161546566679</v>
+        <v>0.7729161546566687</v>
       </c>
       <c r="K6">
-        <v>0.1778414734992214</v>
+        <v>0.1778414734992206</v>
       </c>
       <c r="L6">
-        <v>0.03713128016140413</v>
+        <v>0.03713128016140466</v>
       </c>
       <c r="M6">
-        <v>-1.998401444325282e-15</v>
+        <v>-2.442490654175344e-15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2855,34 +2855,34 @@
         <v>5.59694071670348</v>
       </c>
       <c r="D7">
-        <v>-7.444990227101997</v>
+        <v>-7.444990227101996</v>
       </c>
       <c r="E7">
-        <v>2.177352660845964</v>
+        <v>2.177352660845971</v>
       </c>
       <c r="F7">
-        <v>0.01370034974496199</v>
+        <v>0.01370034974496087</v>
       </c>
       <c r="G7">
-        <v>-0.0517277064371794</v>
+        <v>-0.05172770643717978</v>
       </c>
       <c r="H7">
-        <v>0.08033108248896735</v>
+        <v>0.0803310824889685</v>
       </c>
       <c r="I7">
-        <v>-0.7317869574898446</v>
+        <v>-0.7317869574898452</v>
       </c>
       <c r="J7">
-        <v>-0.09226214967983562</v>
+        <v>-0.09226214967983438</v>
       </c>
       <c r="K7">
-        <v>0.1767560872574286</v>
+        <v>0.1767560872574292</v>
       </c>
       <c r="L7">
-        <v>-0.01155667790213309</v>
+        <v>-0.01155667790213344</v>
       </c>
       <c r="M7">
-        <v>8.881784197001252e-16</v>
+        <v>-1.110223024625157e-15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2896,34 +2896,34 @@
         <v>5.596798580297507</v>
       </c>
       <c r="D8">
-        <v>3.850151082824958</v>
+        <v>3.850151082824966</v>
       </c>
       <c r="E8">
-        <v>4.210039523479276</v>
+        <v>4.210039523479272</v>
       </c>
       <c r="F8">
-        <v>0.6472964556349609</v>
+        <v>0.6472964556349631</v>
       </c>
       <c r="G8">
-        <v>-0.1977719357356237</v>
+        <v>-0.1977719357356233</v>
       </c>
       <c r="H8">
-        <v>0.1540214607132591</v>
+        <v>0.1540214607132594</v>
       </c>
       <c r="I8">
-        <v>0.07375277112142778</v>
+        <v>0.07375277112142802</v>
       </c>
       <c r="J8">
-        <v>-0.2176900968590365</v>
+        <v>-0.2176900968590363</v>
       </c>
       <c r="K8">
-        <v>-0.1591117421029281</v>
+        <v>-0.1591117421029284</v>
       </c>
       <c r="L8">
-        <v>0.07522000982583571</v>
+        <v>0.07522000982583599</v>
       </c>
       <c r="M8">
-        <v>-1.332267629550188e-15</v>
+        <v>-7.771561172376096e-16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2940,31 +2940,31 @@
         <v>8.823270909742806</v>
       </c>
       <c r="E9">
-        <v>-3.686252474188231</v>
+        <v>-3.68625247418824</v>
       </c>
       <c r="F9">
-        <v>0.4849993967924027</v>
+        <v>0.4849993967924024</v>
       </c>
       <c r="G9">
-        <v>-0.3999483349970963</v>
+        <v>-0.3999483349970966</v>
       </c>
       <c r="H9">
-        <v>-0.4099057867130714</v>
+        <v>-0.4099057867130723</v>
       </c>
       <c r="I9">
         <v>0.4570923904103185</v>
       </c>
       <c r="J9">
-        <v>-0.02087477471608563</v>
+        <v>-0.0208747747160869</v>
       </c>
       <c r="K9">
-        <v>0.2057785480600904</v>
+        <v>0.2057785480600909</v>
       </c>
       <c r="L9">
-        <v>-0.02040305515504902</v>
+        <v>-0.02040305515504914</v>
       </c>
       <c r="M9">
-        <v>-5.551115123125783e-17</v>
+        <v>2.220446049250313e-16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2978,34 +2978,34 @@
         <v>5.597446007335155</v>
       </c>
       <c r="D10">
-        <v>5.276345143872843</v>
+        <v>5.27634514387285</v>
       </c>
       <c r="E10">
-        <v>3.952556960751747</v>
+        <v>3.952556960751742</v>
       </c>
       <c r="F10">
-        <v>0.3584825994897238</v>
+        <v>0.3584825994897274</v>
       </c>
       <c r="G10">
-        <v>0.6497150851246855</v>
+        <v>0.6497150851246863</v>
       </c>
       <c r="H10">
-        <v>-1.04720017120039</v>
+        <v>-1.047200171200391</v>
       </c>
       <c r="I10">
-        <v>0.624020966167955</v>
+        <v>0.6240209661679555</v>
       </c>
       <c r="J10">
-        <v>-0.199487997178103</v>
+        <v>-0.1994879971781036</v>
       </c>
       <c r="K10">
-        <v>0.2125764319749359</v>
+        <v>0.2125764319749358</v>
       </c>
       <c r="L10">
-        <v>-0.02177451415860036</v>
+        <v>-0.02177451415860121</v>
       </c>
       <c r="M10">
-        <v>-4.440892098500626e-16</v>
+        <v>-2.775557561562891e-16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3019,34 +3019,34 @@
         <v>5.597720101004323</v>
       </c>
       <c r="D11">
-        <v>1.705382076512345</v>
+        <v>1.705382076512338</v>
       </c>
       <c r="E11">
-        <v>-6.040491704052505</v>
+        <v>-6.040491704052504</v>
       </c>
       <c r="F11">
-        <v>-5.550410410220008</v>
+        <v>-5.550410410220007</v>
       </c>
       <c r="G11">
-        <v>-1.559860987895269</v>
+        <v>-1.559860987895267</v>
       </c>
       <c r="H11">
-        <v>-0.653349913835561</v>
+        <v>-0.653349913835563</v>
       </c>
       <c r="I11">
-        <v>0.4827682709056485</v>
+        <v>0.4827682709056478</v>
       </c>
       <c r="J11">
-        <v>-0.377748156409684</v>
+        <v>-0.3777481564096853</v>
       </c>
       <c r="K11">
-        <v>-0.1772508393885731</v>
+        <v>-0.1772508393885718</v>
       </c>
       <c r="L11">
-        <v>-0.02906285192077362</v>
+        <v>-0.02906285192077418</v>
       </c>
       <c r="M11">
-        <v>1.110223024625157e-15</v>
+        <v>2.55351295663786e-15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3060,34 +3060,34 @@
         <v>5.598365769910693</v>
       </c>
       <c r="D12">
-        <v>-1.095416438968584</v>
+        <v>-1.09541643896858</v>
       </c>
       <c r="E12">
-        <v>3.265385657860063</v>
+        <v>3.265385657860062</v>
       </c>
       <c r="F12">
-        <v>7.143596856984808</v>
+        <v>7.143596856984804</v>
       </c>
       <c r="G12">
-        <v>-0.03236985760789466</v>
+        <v>-0.03236985760789773</v>
       </c>
       <c r="H12">
-        <v>-0.3071910128419164</v>
+        <v>-0.307191012841915</v>
       </c>
       <c r="I12">
-        <v>0.02712705977786745</v>
+        <v>0.0271270597778671</v>
       </c>
       <c r="J12">
-        <v>-0.3192155299308639</v>
+        <v>-0.3192155299308631</v>
       </c>
       <c r="K12">
-        <v>-0.07188608959471228</v>
+        <v>-0.07188608959471268</v>
       </c>
       <c r="L12">
-        <v>-0.02528785673413163</v>
+        <v>-0.02528785673413081</v>
       </c>
       <c r="M12">
-        <v>-1.554312234475219e-15</v>
+        <v>-2.664535259100376e-15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3101,34 +3101,34 @@
         <v>5.600000471917006</v>
       </c>
       <c r="D13">
-        <v>-3.443593643662977</v>
+        <v>-3.443593643662988</v>
       </c>
       <c r="E13">
-        <v>-6.063022548687376</v>
+        <v>-6.063022548687373</v>
       </c>
       <c r="F13">
-        <v>0.8910374515727802</v>
+        <v>0.8910374515727759</v>
       </c>
       <c r="G13">
-        <v>0.3386847203531625</v>
+        <v>0.3386847203531616</v>
       </c>
       <c r="H13">
-        <v>0.5821643197799663</v>
+        <v>0.582164319779967</v>
       </c>
       <c r="I13">
-        <v>-0.4852343488681983</v>
+        <v>-0.4852343488681986</v>
       </c>
       <c r="J13">
-        <v>-0.003967420691035251</v>
+        <v>-0.003967420691034695</v>
       </c>
       <c r="K13">
-        <v>0.02114548412883793</v>
+        <v>0.02114548412883783</v>
       </c>
       <c r="L13">
-        <v>-0.02486732490978956</v>
+        <v>-0.02486732490978949</v>
       </c>
       <c r="M13">
-        <v>-4.440892098500626e-16</v>
+        <v>-5.551115123125783e-16</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3142,34 +3142,34 @@
         <v>5.600003817796717</v>
       </c>
       <c r="D14">
-        <v>1.987168043646721</v>
+        <v>1.987168043646714</v>
       </c>
       <c r="E14">
-        <v>-4.283646269245192</v>
+        <v>-4.283646269245197</v>
       </c>
       <c r="F14">
-        <v>7.471562045664616</v>
+        <v>7.47156204566461</v>
       </c>
       <c r="G14">
-        <v>0.08500673075032958</v>
+        <v>0.0850067307503259</v>
       </c>
       <c r="H14">
-        <v>-0.009794353463429393</v>
+        <v>-0.009794353463428159</v>
       </c>
       <c r="I14">
-        <v>0.07178899550529458</v>
+        <v>0.07178899550529434</v>
       </c>
       <c r="J14">
-        <v>-0.06537056063110402</v>
+        <v>-0.06537056063110254</v>
       </c>
       <c r="K14">
-        <v>0.108254204205007</v>
+        <v>0.1082542042050076</v>
       </c>
       <c r="L14">
-        <v>-0.09755391266547253</v>
+        <v>-0.0975539126654722</v>
       </c>
       <c r="M14">
-        <v>-1.110223024625157e-15</v>
+        <v>-3.108624468950438e-15</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3183,34 +3183,34 @@
         <v>5.600053095749235</v>
       </c>
       <c r="D15">
-        <v>3.537807122591078</v>
+        <v>3.537807122591085</v>
       </c>
       <c r="E15">
-        <v>4.435714487797639</v>
+        <v>4.435714487797635</v>
       </c>
       <c r="F15">
-        <v>0.2637802141733995</v>
+        <v>0.2637802141734025</v>
       </c>
       <c r="G15">
-        <v>0.1777016538581525</v>
+        <v>0.1777016538581531</v>
       </c>
       <c r="H15">
-        <v>-0.2457751947465502</v>
+        <v>-0.2457751947465503</v>
       </c>
       <c r="I15">
-        <v>-0.04878644247611282</v>
+        <v>-0.04878644247611264</v>
       </c>
       <c r="J15">
-        <v>-0.226551424274189</v>
+        <v>-0.2265514242741891</v>
       </c>
       <c r="K15">
-        <v>0.008018700811892173</v>
+        <v>0.008018700811891913</v>
       </c>
       <c r="L15">
-        <v>-0.08201027131263909</v>
+        <v>-0.08201027131263894</v>
       </c>
       <c r="M15">
-        <v>-2.220446049250313e-16</v>
+        <v>5.551115123125783e-17</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3224,34 +3224,34 @@
         <v>5.600127822754469</v>
       </c>
       <c r="D16">
-        <v>-0.6292341329504517</v>
+        <v>-0.6292341329504475</v>
       </c>
       <c r="E16">
-        <v>1.981554869913925</v>
+        <v>1.981554869913927</v>
       </c>
       <c r="F16">
-        <v>-7.521379452610549</v>
+        <v>-7.521379452610542</v>
       </c>
       <c r="G16">
-        <v>0.9438575760185267</v>
+        <v>0.9438575760185304</v>
       </c>
       <c r="H16">
-        <v>-0.7302384414925882</v>
+        <v>-0.73023844149259</v>
       </c>
       <c r="I16">
-        <v>0.27166334386248</v>
+        <v>0.2716633438624801</v>
       </c>
       <c r="J16">
-        <v>-0.1518535625233648</v>
+        <v>-0.1518535625233659</v>
       </c>
       <c r="K16">
-        <v>0.1040587644558872</v>
+        <v>0.1040587644558868</v>
       </c>
       <c r="L16">
-        <v>-0.01268267596901004</v>
+        <v>-0.01268267596901096</v>
       </c>
       <c r="M16">
-        <v>3.469446951953614e-15</v>
+        <v>3.108624468950438e-15</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -3265,34 +3265,34 @@
         <v>5.60036119386722</v>
       </c>
       <c r="D17">
-        <v>2.834437837701168</v>
+        <v>2.834437837701163</v>
       </c>
       <c r="E17">
-        <v>-5.809337990830079</v>
+        <v>-5.809337990830081</v>
       </c>
       <c r="F17">
-        <v>-6.437649187788002</v>
+        <v>-6.437649187788</v>
       </c>
       <c r="G17">
-        <v>0.2949864791854271</v>
+        <v>0.2949864791854289</v>
       </c>
       <c r="H17">
-        <v>-1.370323617421735</v>
+        <v>-1.370323617421737</v>
       </c>
       <c r="I17">
-        <v>0.04300381151062902</v>
+        <v>0.0430038115106286</v>
       </c>
       <c r="J17">
-        <v>-0.02149441569440901</v>
+        <v>-0.02149441569441053</v>
       </c>
       <c r="K17">
-        <v>0.1357476523432974</v>
+        <v>0.1357476523432977</v>
       </c>
       <c r="L17">
-        <v>0.01961750042884712</v>
+        <v>0.0196175004288468</v>
       </c>
       <c r="M17">
-        <v>2.886579864025407e-15</v>
+        <v>1.887379141862766e-15</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -3306,34 +3306,34 @@
         <v>5.601039032499569</v>
       </c>
       <c r="D18">
-        <v>-0.6307041878496137</v>
+        <v>-0.6307041878496096</v>
       </c>
       <c r="E18">
-        <v>2.636971150739737</v>
+        <v>2.636971150739738</v>
       </c>
       <c r="F18">
-        <v>-6.953676687628431</v>
+        <v>-6.953676687628423</v>
       </c>
       <c r="G18">
-        <v>1.962791571386414</v>
+        <v>1.962791571386419</v>
       </c>
       <c r="H18">
-        <v>-0.6292211628270644</v>
+        <v>-0.6292211628270649</v>
       </c>
       <c r="I18">
-        <v>-0.9555444293570436</v>
+        <v>-0.9555444293570441</v>
       </c>
       <c r="J18">
-        <v>-0.3199354618701765</v>
+        <v>-0.3199354618701772</v>
       </c>
       <c r="K18">
-        <v>-0.08150122434085659</v>
+        <v>-0.0815012243408576</v>
       </c>
       <c r="L18">
-        <v>-0.03893743261083556</v>
+        <v>-0.03893743261083586</v>
       </c>
       <c r="M18">
-        <v>6.453171330633722e-16</v>
+        <v>1.332267629550188e-15</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -3350,31 +3350,31 @@
         <v>10.57755392904687</v>
       </c>
       <c r="E19">
-        <v>-2.97876880448355</v>
+        <v>-2.97876880448356</v>
       </c>
       <c r="F19">
-        <v>0.9239613730802728</v>
+        <v>0.9239613730802724</v>
       </c>
       <c r="G19">
-        <v>-0.4319371832114256</v>
+        <v>-0.4319371832114252</v>
       </c>
       <c r="H19">
-        <v>0.5752061872620464</v>
+        <v>0.5752061872620458</v>
       </c>
       <c r="I19">
-        <v>0.1098446085666799</v>
+        <v>0.1098446085666807</v>
       </c>
       <c r="J19">
-        <v>0.1395107174785802</v>
+        <v>0.1395107174785797</v>
       </c>
       <c r="K19">
-        <v>0.03506072596422453</v>
+        <v>0.03506072596422515</v>
       </c>
       <c r="L19">
-        <v>-0.02234308981364783</v>
+        <v>-0.02234308981364752</v>
       </c>
       <c r="M19">
-        <v>-1.998401444325282e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -3388,34 +3388,34 @@
         <v>5.602266998711832</v>
       </c>
       <c r="D20">
-        <v>9.058706237204815</v>
+        <v>9.058706237204813</v>
       </c>
       <c r="E20">
-        <v>-3.230713978638114</v>
+        <v>-3.230713978638122</v>
       </c>
       <c r="F20">
-        <v>0.2865855402875217</v>
+        <v>0.2865855402875212</v>
       </c>
       <c r="G20">
-        <v>-1.611487783816822</v>
+        <v>-1.611487783816823</v>
       </c>
       <c r="H20">
-        <v>0.9149705061664331</v>
+        <v>0.9149705061664332</v>
       </c>
       <c r="I20">
-        <v>-0.397024240219736</v>
+        <v>-0.3970242402197358</v>
       </c>
       <c r="J20">
-        <v>-0.02428390294642384</v>
+        <v>-0.02428390294642339</v>
       </c>
       <c r="K20">
-        <v>-0.03414480070781922</v>
+        <v>-0.03414480070781863</v>
       </c>
       <c r="L20">
-        <v>0.01435045054559192</v>
+        <v>0.01435045054559264</v>
       </c>
       <c r="M20">
-        <v>-7.771561172376096e-16</v>
+        <v>-5.551115123125783e-16</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -3432,28 +3432,28 @@
         <v>7.766181676795562</v>
       </c>
       <c r="E21">
-        <v>-3.561948408115305</v>
+        <v>-3.561948408115313</v>
       </c>
       <c r="F21">
-        <v>0.5719410240060636</v>
+        <v>0.5719410240060638</v>
       </c>
       <c r="G21">
-        <v>0.8146537978972739</v>
+        <v>0.8146537978972741</v>
       </c>
       <c r="H21">
-        <v>-0.2279161632690288</v>
+        <v>-0.227916163269029</v>
       </c>
       <c r="I21">
-        <v>-0.3696537800799451</v>
+        <v>-0.3696537800799447</v>
       </c>
       <c r="J21">
         <v>-0.1507986661108498</v>
       </c>
       <c r="K21">
-        <v>0.03518985261511007</v>
+        <v>0.03518985261510996</v>
       </c>
       <c r="L21">
-        <v>0.01693514377511321</v>
+        <v>0.01693514377511365</v>
       </c>
       <c r="M21">
         <v>-1.221245327087672e-15</v>
@@ -3470,34 +3470,34 @@
         <v>5.603702954193941</v>
       </c>
       <c r="D22">
-        <v>8.678581483385946</v>
+        <v>8.678581483385944</v>
       </c>
       <c r="E22">
-        <v>-3.490813074054703</v>
+        <v>-3.490813074054711</v>
       </c>
       <c r="F22">
         <v>1.138848660479264</v>
       </c>
       <c r="G22">
-        <v>0.1461216794893948</v>
+        <v>0.1461216794893944</v>
       </c>
       <c r="H22">
-        <v>-0.08386519445878231</v>
+        <v>-0.08386519445878279</v>
       </c>
       <c r="I22">
-        <v>0.2160677148668539</v>
+        <v>0.2160677148668546</v>
       </c>
       <c r="J22">
-        <v>-0.01777106909763701</v>
+        <v>-0.01777106909763724</v>
       </c>
       <c r="K22">
-        <v>0.03928274314860907</v>
+        <v>0.03928274314860936</v>
       </c>
       <c r="L22">
-        <v>-0.0518840177365707</v>
+        <v>-0.05188401773657028</v>
       </c>
       <c r="M22">
-        <v>1.110223024625157e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3511,34 +3511,34 @@
         <v>5.603319110589768</v>
       </c>
       <c r="D23">
-        <v>5.032687086846725</v>
+        <v>5.032687086846731</v>
       </c>
       <c r="E23">
-        <v>3.507815296886958</v>
+        <v>3.507815296886953</v>
       </c>
       <c r="F23">
-        <v>-1.608391286570792</v>
+        <v>-1.608391286570786</v>
       </c>
       <c r="G23">
-        <v>1.374286505817981</v>
+        <v>1.374286505817983</v>
       </c>
       <c r="H23">
-        <v>-0.9922585359150546</v>
+        <v>-0.9922585359150555</v>
       </c>
       <c r="I23">
-        <v>0.4000991127047477</v>
+        <v>0.4000991127047483</v>
       </c>
       <c r="J23">
-        <v>-0.2186882467076462</v>
+        <v>-0.2186882467076472</v>
       </c>
       <c r="K23">
-        <v>0.1345199334342427</v>
+        <v>0.1345199334342429</v>
       </c>
       <c r="L23">
-        <v>-0.01346271391742643</v>
+        <v>-0.01346271391742704</v>
       </c>
       <c r="M23">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3552,34 +3552,34 @@
         <v>5.603795657083984</v>
       </c>
       <c r="D24">
-        <v>-1.02268980371796</v>
+        <v>-1.022689803717955</v>
       </c>
       <c r="E24">
-        <v>2.364968418057732</v>
+        <v>2.364968418057734</v>
       </c>
       <c r="F24">
-        <v>-7.411626383051192</v>
+        <v>-7.411626383051186</v>
       </c>
       <c r="G24">
-        <v>0.594966533031141</v>
+        <v>0.5949665330311443</v>
       </c>
       <c r="H24">
-        <v>-0.9551616462748277</v>
+        <v>-0.955161646274829</v>
       </c>
       <c r="I24">
-        <v>0.2696862829051136</v>
+        <v>0.2696862829051133</v>
       </c>
       <c r="J24">
-        <v>-0.142990264874992</v>
+        <v>-0.1429902648749936</v>
       </c>
       <c r="K24">
-        <v>0.04597396763661297</v>
+        <v>0.04597396763661265</v>
       </c>
       <c r="L24">
-        <v>0.06410692844394814</v>
+        <v>0.06410692844394728</v>
       </c>
       <c r="M24">
-        <v>1.609823385706477e-15</v>
+        <v>2.220446049250313e-15</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -3596,31 +3596,31 @@
         <v>9.16399543367322</v>
       </c>
       <c r="E25">
-        <v>-3.143411816006512</v>
+        <v>-3.14341181600652</v>
       </c>
       <c r="F25">
-        <v>0.1944105631627321</v>
+        <v>0.1944105631627327</v>
       </c>
       <c r="G25">
-        <v>-0.1001086601495535</v>
+        <v>-0.1001086601495529</v>
       </c>
       <c r="H25">
-        <v>0.4206050407388339</v>
+        <v>0.4206050407388341</v>
       </c>
       <c r="I25">
-        <v>-0.6775229682829357</v>
+        <v>-0.6775229682829353</v>
       </c>
       <c r="J25">
-        <v>-0.107096305017114</v>
+        <v>-0.1070963050171139</v>
       </c>
       <c r="K25">
-        <v>0.06934921994626743</v>
+        <v>0.06934921994626733</v>
       </c>
       <c r="L25">
-        <v>0.05810254463460536</v>
+        <v>0.05810254463460612</v>
       </c>
       <c r="M25">
-        <v>-1.054711873393899e-15</v>
+        <v>-1.110223024625157e-16</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -3634,7 +3634,7 @@
         <v>5.606562697551281</v>
       </c>
       <c r="D26">
-        <v>1.455095932906463</v>
+        <v>1.455095932906456</v>
       </c>
       <c r="E26">
         <v>-5.733015928483566</v>
@@ -3646,22 +3646,22 @@
         <v>-2.096589071949186</v>
       </c>
       <c r="H26">
-        <v>1.253285888741809</v>
+        <v>1.253285888741808</v>
       </c>
       <c r="I26">
-        <v>-0.06147159068427491</v>
+        <v>-0.06147159068427469</v>
       </c>
       <c r="J26">
         <v>0.4874023044936753</v>
       </c>
       <c r="K26">
-        <v>-0.1214450830482337</v>
+        <v>-0.1214450830482326</v>
       </c>
       <c r="L26">
-        <v>-0.05805574870299268</v>
+        <v>-0.05805574870299179</v>
       </c>
       <c r="M26">
-        <v>-8.881784197001252e-16</v>
+        <v>3.108624468950438e-15</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -3675,34 +3675,34 @@
         <v>5.606864600812729</v>
       </c>
       <c r="D27">
-        <v>7.981695828269905</v>
+        <v>7.981695828269903</v>
       </c>
       <c r="E27">
-        <v>-3.298155153301039</v>
+        <v>-3.298155153301047</v>
       </c>
       <c r="F27">
-        <v>1.275626870910989</v>
+        <v>1.275626870910988</v>
       </c>
       <c r="G27">
-        <v>-0.7166168584573596</v>
+        <v>-0.7166168584573601</v>
       </c>
       <c r="H27">
-        <v>0.4631856320281417</v>
+        <v>0.4631856320281421</v>
       </c>
       <c r="I27">
         <v>-0.5591254591400384</v>
       </c>
       <c r="J27">
-        <v>0.2369974269608544</v>
+        <v>0.2369974269608549</v>
       </c>
       <c r="K27">
-        <v>-0.221696857938986</v>
+        <v>-0.2216968579389861</v>
       </c>
       <c r="L27">
-        <v>-0.05317333861976854</v>
+        <v>-0.05317333861976772</v>
       </c>
       <c r="M27">
-        <v>-2.275957200481571e-15</v>
+        <v>-1.332267629550188e-15</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -3716,34 +3716,34 @@
         <v>5.607417783737577</v>
       </c>
       <c r="D28">
-        <v>5.726440774418945</v>
+        <v>5.726440774418955</v>
       </c>
       <c r="E28">
-        <v>5.040036767946397</v>
+        <v>5.040036767946392</v>
       </c>
       <c r="F28">
-        <v>0.5930968410961173</v>
+        <v>0.59309684109612</v>
       </c>
       <c r="G28">
-        <v>-0.7709091721501998</v>
+        <v>-0.7709091721501996</v>
       </c>
       <c r="H28">
-        <v>0.3692002553451055</v>
+        <v>0.3692002553451052</v>
       </c>
       <c r="I28">
-        <v>0.4365906301453236</v>
+        <v>0.4365906301453241</v>
       </c>
       <c r="J28">
-        <v>-0.3417296480622959</v>
+        <v>-0.3417296480622962</v>
       </c>
       <c r="K28">
-        <v>-0.2618576096054275</v>
+        <v>-0.2618576096054272</v>
       </c>
       <c r="L28">
-        <v>-0.05962124287732444</v>
+        <v>-0.05962124287732418</v>
       </c>
       <c r="M28">
-        <v>-8.881784197001252e-16</v>
+        <v>-4.996003610813204e-16</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -3757,34 +3757,34 @@
         <v>5.608895493658637</v>
       </c>
       <c r="D29">
-        <v>-3.561694106325142</v>
+        <v>-3.561694106325152</v>
       </c>
       <c r="E29">
-        <v>-6.294108189196336</v>
+        <v>-6.294108189196332</v>
       </c>
       <c r="F29">
-        <v>0.8345945991506222</v>
+        <v>0.8345945991506178</v>
       </c>
       <c r="G29">
-        <v>-0.1435293950537105</v>
+        <v>-0.1435293950537122</v>
       </c>
       <c r="H29">
-        <v>-0.8893273105581059</v>
+        <v>-0.8893273105581054</v>
       </c>
       <c r="I29">
-        <v>-0.1282916326831404</v>
+        <v>-0.1282916326831412</v>
       </c>
       <c r="J29">
-        <v>-0.3617055307103253</v>
+        <v>-0.361705530710325</v>
       </c>
       <c r="K29">
-        <v>-0.3818975662784434</v>
+        <v>-0.3818975662784429</v>
       </c>
       <c r="L29">
-        <v>0.06297292197984368</v>
+        <v>0.06297292197984339</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-3.33066907387547e-16</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -3798,34 +3798,34 @@
         <v>5.608420949100326</v>
       </c>
       <c r="D30">
-        <v>2.215137526380593</v>
+        <v>2.215137526380587</v>
       </c>
       <c r="E30">
-        <v>-5.563805199724597</v>
+        <v>-5.563805199724599</v>
       </c>
       <c r="F30">
-        <v>-5.540702759058983</v>
+        <v>-5.540702759058981</v>
       </c>
       <c r="G30">
-        <v>0.3327082969636429</v>
+        <v>0.3327082969636453</v>
       </c>
       <c r="H30">
-        <v>0.4470809508525311</v>
+        <v>0.4470809508525302</v>
       </c>
       <c r="I30">
-        <v>-0.4006106875228535</v>
+        <v>-0.4006106875228532</v>
       </c>
       <c r="J30">
-        <v>0.6384433162611747</v>
+        <v>0.638443316261174</v>
       </c>
       <c r="K30">
         <v>0.2101089985130794</v>
       </c>
       <c r="L30">
-        <v>0.06471318331346908</v>
+        <v>0.06471318331346954</v>
       </c>
       <c r="M30">
-        <v>1.554312234475219e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -3839,34 +3839,34 @@
         <v>5.611264392336714</v>
       </c>
       <c r="D31">
-        <v>2.383548624301966</v>
+        <v>2.383548624301961</v>
       </c>
       <c r="E31">
-        <v>-4.104133351163043</v>
+        <v>-4.104133351163048</v>
       </c>
       <c r="F31">
-        <v>6.777764757404105</v>
+        <v>6.777764757404099</v>
       </c>
       <c r="G31">
-        <v>2.355217829681871</v>
+        <v>2.355217829681869</v>
       </c>
       <c r="H31">
-        <v>-0.6534899631535814</v>
+        <v>-0.6534899631535799</v>
       </c>
       <c r="I31">
-        <v>-0.435977301504173</v>
+        <v>-0.4359773015041734</v>
       </c>
       <c r="J31">
-        <v>0.008566253521284085</v>
+        <v>0.008566253521284277</v>
       </c>
       <c r="K31">
-        <v>0.1655005811817332</v>
+        <v>0.1655005811817324</v>
       </c>
       <c r="L31">
-        <v>0.01875133570220849</v>
+        <v>0.01875133570220933</v>
       </c>
       <c r="M31">
-        <v>-2.220446049250313e-16</v>
+        <v>-1.332267629550188e-15</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -3880,34 +3880,34 @@
         <v>5.610068732569744</v>
       </c>
       <c r="D32">
-        <v>-3.564192166928028</v>
+        <v>-3.564192166928039</v>
       </c>
       <c r="E32">
-        <v>-6.172625338097371</v>
+        <v>-6.172625338097369</v>
       </c>
       <c r="F32">
-        <v>0.9052432204833548</v>
+        <v>0.9052432204833504</v>
       </c>
       <c r="G32">
-        <v>-0.316529281647068</v>
+        <v>-0.3165292816470693</v>
       </c>
       <c r="H32">
-        <v>-0.3056970000928927</v>
+        <v>-0.3056970000928922</v>
       </c>
       <c r="I32">
-        <v>-0.3883197799883334</v>
+        <v>-0.3883197799883341</v>
       </c>
       <c r="J32">
-        <v>0.07281275620179922</v>
+        <v>0.07281275620179992</v>
       </c>
       <c r="K32">
-        <v>-0.3160455986525447</v>
+        <v>-0.3160455986525444</v>
       </c>
       <c r="L32">
-        <v>0.005739636814306209</v>
+        <v>0.005739636814306337</v>
       </c>
       <c r="M32">
-        <v>-4.440892098500626e-16</v>
+        <v>2.442490654175344e-15</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -3921,34 +3921,34 @@
         <v>5.611141756695298</v>
       </c>
       <c r="D33">
-        <v>-3.638641925341044</v>
+        <v>-3.638641925341055</v>
       </c>
       <c r="E33">
-        <v>-6.156112618235765</v>
+        <v>-6.156112618235762</v>
       </c>
       <c r="F33">
-        <v>0.9596946492232119</v>
+        <v>0.9596946492232072</v>
       </c>
       <c r="G33">
-        <v>-0.6468633052364284</v>
+        <v>-0.6468633052364294</v>
       </c>
       <c r="H33">
-        <v>-0.02921960387010175</v>
+        <v>-0.0292196038701012</v>
       </c>
       <c r="I33">
-        <v>-0.5673858163629132</v>
+        <v>-0.567385816362914</v>
       </c>
       <c r="J33">
-        <v>-0.0567205980515097</v>
+        <v>-0.05672059805150918</v>
       </c>
       <c r="K33">
-        <v>-0.1168624628843078</v>
+        <v>-0.1168624628843074</v>
       </c>
       <c r="L33">
-        <v>-0.07024509708266471</v>
+        <v>-0.07024509708266358</v>
       </c>
       <c r="M33">
-        <v>-1.332267629550188e-15</v>
+        <v>-2.775557561562891e-15</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -3962,34 +3962,34 @@
         <v>5.613429376086693</v>
       </c>
       <c r="D34">
-        <v>-3.671274080301434</v>
+        <v>-3.671274080301445</v>
       </c>
       <c r="E34">
-        <v>-6.284659670033558</v>
+        <v>-6.284659670033554</v>
       </c>
       <c r="F34">
-        <v>0.9164597164093138</v>
+        <v>0.9164597164093091</v>
       </c>
       <c r="G34">
-        <v>-0.4003783563505873</v>
+        <v>-0.4003783563505887</v>
       </c>
       <c r="H34">
-        <v>-0.1695257161545394</v>
+        <v>-0.1695257161545387</v>
       </c>
       <c r="I34">
-        <v>-0.3404903212887977</v>
+        <v>-0.3404903212887987</v>
       </c>
       <c r="J34">
-        <v>-0.489985441762822</v>
+        <v>-0.4899854417628217</v>
       </c>
       <c r="K34">
-        <v>0.1022057602033749</v>
+        <v>0.1022057602033752</v>
       </c>
       <c r="L34">
-        <v>-0.02126235810725374</v>
+        <v>-0.02126235810725396</v>
       </c>
       <c r="M34">
-        <v>-4.440892098500626e-16</v>
+        <v>-6.661338147750939e-16</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -4003,34 +4003,34 @@
         <v>5.611264799024002</v>
       </c>
       <c r="D35">
-        <v>-1.287391219600611</v>
+        <v>-1.287391219600605</v>
       </c>
       <c r="E35">
-        <v>3.127932759201137</v>
+        <v>3.12793275920114</v>
       </c>
       <c r="F35">
-        <v>-6.673720593336047</v>
+        <v>-6.673720593336041</v>
       </c>
       <c r="G35">
-        <v>1.804341711929176</v>
+        <v>1.804341711929181</v>
       </c>
       <c r="H35">
-        <v>-0.3163696885611381</v>
+        <v>-0.3163696885611385</v>
       </c>
       <c r="I35">
-        <v>-0.763642083033318</v>
+        <v>-0.7636420830333178</v>
       </c>
       <c r="J35">
-        <v>-0.04037158909166425</v>
+        <v>-0.04037158909166436</v>
       </c>
       <c r="K35">
-        <v>-0.1604481673189986</v>
+        <v>-0.1604481673189997</v>
       </c>
       <c r="L35">
-        <v>-0.08778078174089507</v>
+        <v>-0.08778078174089556</v>
       </c>
       <c r="M35">
-        <v>2.567390744445674e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -4044,34 +4044,34 @@
         <v>5.614126365701509</v>
       </c>
       <c r="D36">
-        <v>6.98500357524807</v>
+        <v>6.985003575248081</v>
       </c>
       <c r="E36">
-        <v>4.439052718330179</v>
+        <v>4.439052718330173</v>
       </c>
       <c r="F36">
-        <v>-0.4177247329831525</v>
+        <v>-0.4177247329831474</v>
       </c>
       <c r="G36">
-        <v>0.9658933593639515</v>
+        <v>0.9658933593639523</v>
       </c>
       <c r="H36">
-        <v>-0.1830334675109576</v>
+        <v>-0.1830334675109579</v>
       </c>
       <c r="I36">
-        <v>-0.2177324040841848</v>
+        <v>-0.2177324040841844</v>
       </c>
       <c r="J36">
-        <v>-0.1385840105852946</v>
+        <v>-0.1385840105852943</v>
       </c>
       <c r="K36">
-        <v>0.07097943921200395</v>
+        <v>0.07097943921200425</v>
       </c>
       <c r="L36">
-        <v>0.0613714271774071</v>
+        <v>0.06137142717740751</v>
       </c>
       <c r="M36">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.326672684688674e-16</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -4085,34 +4085,34 @@
         <v>5.602296254214171</v>
       </c>
       <c r="D37">
-        <v>-3.07897659169071</v>
+        <v>-3.078976591690719</v>
       </c>
       <c r="E37">
-        <v>-5.932538434739477</v>
+        <v>-5.932538434739476</v>
       </c>
       <c r="F37">
-        <v>0.7431942470908781</v>
+        <v>0.7431942470908754</v>
       </c>
       <c r="G37">
         <v>1.449177937522566</v>
       </c>
       <c r="H37">
-        <v>-0.03651233871687105</v>
+        <v>-0.03651233871686998</v>
       </c>
       <c r="I37">
-        <v>-0.624503888851981</v>
+        <v>-0.6245038888519803</v>
       </c>
       <c r="J37">
-        <v>0.7342737551028443</v>
+        <v>0.7342737551028448</v>
       </c>
       <c r="K37">
-        <v>0.02519802149779933</v>
+        <v>0.02519802149779961</v>
       </c>
       <c r="L37">
-        <v>0.137026365742516</v>
+        <v>0.1370263657425173</v>
       </c>
       <c r="M37">
-        <v>-3.108624468950438e-15</v>
+        <v>-2.220446049250313e-16</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -4126,34 +4126,34 @@
         <v>5.603205349562248</v>
       </c>
       <c r="D38">
-        <v>5.662712024439321</v>
+        <v>5.66271202443933</v>
       </c>
       <c r="E38">
-        <v>4.758314300199743</v>
+        <v>4.758314300199737</v>
       </c>
       <c r="F38">
-        <v>-0.5600274476636591</v>
+        <v>-0.5600274476636539</v>
       </c>
       <c r="G38">
-        <v>0.9828886125351216</v>
+        <v>0.9828886125351232</v>
       </c>
       <c r="H38">
-        <v>0.2940988551022866</v>
+        <v>0.2940988551022871</v>
       </c>
       <c r="I38">
-        <v>-0.8186670391561233</v>
+        <v>-0.818667039156122</v>
       </c>
       <c r="J38">
-        <v>0.1707412203538282</v>
+        <v>0.1707412203538287</v>
       </c>
       <c r="K38">
-        <v>-0.2871027200861076</v>
+        <v>-0.2871027200861084</v>
       </c>
       <c r="L38">
-        <v>0.1545231689041585</v>
+        <v>0.1545231689041591</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-7.771561172376096e-16</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -4167,34 +4167,34 @@
         <v>5.604798666926542</v>
       </c>
       <c r="D39">
-        <v>-2.622909084115485</v>
+        <v>-2.622909084115481</v>
       </c>
       <c r="E39">
-        <v>4.881902150891915</v>
+        <v>4.881902150891917</v>
       </c>
       <c r="F39">
-        <v>6.425092006008255</v>
+        <v>6.425092006008251</v>
       </c>
       <c r="G39">
-        <v>-0.7378577566535249</v>
+        <v>-0.7378577566535275</v>
       </c>
       <c r="H39">
-        <v>0.2293815331596663</v>
+        <v>0.2293815331596676</v>
       </c>
       <c r="I39">
-        <v>-0.04507476536498863</v>
+        <v>-0.04507476536498857</v>
       </c>
       <c r="J39">
-        <v>-0.3328947580708501</v>
+        <v>-0.332894758070849</v>
       </c>
       <c r="K39">
-        <v>-0.1102159149429401</v>
+        <v>-0.1102159149429404</v>
       </c>
       <c r="L39">
-        <v>-0.01749158002149824</v>
+        <v>-0.0174915800214982</v>
       </c>
       <c r="M39">
-        <v>-1.998401444325282e-15</v>
+        <v>-2.55351295663786e-15</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -4208,34 +4208,34 @@
         <v>5.599278965530786</v>
       </c>
       <c r="D40">
-        <v>-4.243824959436989</v>
+        <v>-4.243824959437</v>
       </c>
       <c r="E40">
-        <v>-6.776590590772594</v>
+        <v>-6.77659059077259</v>
       </c>
       <c r="F40">
-        <v>1.050710816675843</v>
+        <v>1.050710816675838</v>
       </c>
       <c r="G40">
-        <v>-1.266438812104874</v>
+        <v>-1.266438812104876</v>
       </c>
       <c r="H40">
-        <v>0.07071594819812217</v>
+        <v>0.07071594819812187</v>
       </c>
       <c r="I40">
-        <v>0.7136387883144606</v>
+        <v>0.7136387883144596</v>
       </c>
       <c r="J40">
-        <v>-0.5073388149887388</v>
+        <v>-0.507338814988739</v>
       </c>
       <c r="K40">
-        <v>0.6572170114395649</v>
+        <v>0.6572170114395658</v>
       </c>
       <c r="L40">
-        <v>0.2195908505536237</v>
+        <v>0.2195908505536235</v>
       </c>
       <c r="M40">
-        <v>-4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -4249,34 +4249,34 @@
         <v>5.598668078622648</v>
       </c>
       <c r="D41">
-        <v>-1.875225492313946</v>
+        <v>-1.875225492313942</v>
       </c>
       <c r="E41">
-        <v>2.456430458852656</v>
+        <v>2.45643045885266</v>
       </c>
       <c r="F41">
-        <v>-6.979954105025164</v>
+        <v>-6.979954105025161</v>
       </c>
       <c r="G41">
-        <v>-2.118619975418523</v>
+        <v>-2.118619975418521</v>
       </c>
       <c r="H41">
-        <v>1.131356954308453</v>
+        <v>1.131356954308451</v>
       </c>
       <c r="I41">
-        <v>0.4295540861742818</v>
+        <v>0.4295540861742816</v>
       </c>
       <c r="J41">
-        <v>-0.04706922843042824</v>
+        <v>-0.04706922843042939</v>
       </c>
       <c r="K41">
-        <v>0.1853387849437094</v>
+        <v>0.1853387849437102</v>
       </c>
       <c r="L41">
-        <v>-0.07203023562977996</v>
+        <v>-0.07203023562978039</v>
       </c>
       <c r="M41">
-        <v>1.332267629550188e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -4290,34 +4290,34 @@
         <v>5.597647077181416</v>
       </c>
       <c r="D42">
-        <v>-9.07789110669251</v>
+        <v>-9.077891106692507</v>
       </c>
       <c r="E42">
-        <v>6.188821777557851</v>
+        <v>6.188821777557861</v>
       </c>
       <c r="F42">
-        <v>-0.4174686011539337</v>
+        <v>-0.4174686011539332</v>
       </c>
       <c r="G42">
-        <v>1.13727771262619</v>
+        <v>1.137277712626192</v>
       </c>
       <c r="H42">
-        <v>2.130340464967895</v>
+        <v>2.130340464967897</v>
       </c>
       <c r="I42">
-        <v>-0.1871913379746295</v>
+        <v>-0.1871913379746289</v>
       </c>
       <c r="J42">
-        <v>-0.4840284159078245</v>
+        <v>-0.484028415907823</v>
       </c>
       <c r="K42">
-        <v>0.1875381110897532</v>
+        <v>0.1875381110897527</v>
       </c>
       <c r="L42">
-        <v>0.08901615541173348</v>
+        <v>0.08901615541173352</v>
       </c>
       <c r="M42">
-        <v>3.05311331771918e-15</v>
+        <v>1.110223024625157e-15</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -4334,31 +4334,31 @@
         <v>-8.517647591292674</v>
       </c>
       <c r="E43">
-        <v>3.287662416209809</v>
+        <v>3.287662416209819</v>
       </c>
       <c r="F43">
-        <v>0.1327188861393387</v>
+        <v>0.132718886139337</v>
       </c>
       <c r="G43">
-        <v>-1.801671598661818</v>
+        <v>-1.80167159866182</v>
       </c>
       <c r="H43">
-        <v>1.040231118223518</v>
+        <v>1.040231118223519</v>
       </c>
       <c r="I43">
-        <v>-0.2445327273193582</v>
+        <v>-0.2445327273193589</v>
       </c>
       <c r="J43">
-        <v>-0.2347168193636446</v>
+        <v>-0.2347168193636433</v>
       </c>
       <c r="K43">
-        <v>-0.1106761738167978</v>
+        <v>-0.1106761738167974</v>
       </c>
       <c r="L43">
-        <v>0.043187833014932</v>
+        <v>0.04318783301493149</v>
       </c>
       <c r="M43">
-        <v>-1.110223024625157e-16</v>
+        <v>-4.440892098500626e-16</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -4375,31 +4375,31 @@
         <v>-8.501373111039195</v>
       </c>
       <c r="E44">
-        <v>3.444523447161827</v>
+        <v>3.444523447161836</v>
       </c>
       <c r="F44">
-        <v>0.1966906802154381</v>
+        <v>0.1966906802154363</v>
       </c>
       <c r="G44">
         <v>-1.916843145933498</v>
       </c>
       <c r="H44">
-        <v>1.819358991456358</v>
+        <v>1.819358991456359</v>
       </c>
       <c r="I44">
-        <v>-0.3668315673164304</v>
+        <v>-0.3668315673164318</v>
       </c>
       <c r="J44">
-        <v>-0.05499709053601129</v>
+        <v>-0.05499709053601005</v>
       </c>
       <c r="K44">
         <v>0.1017237403612682</v>
       </c>
       <c r="L44">
-        <v>0.07498032266232314</v>
+        <v>0.0749803226623231</v>
       </c>
       <c r="M44">
-        <v>8.326672684688674e-16</v>
+        <v>1.110223024625157e-15</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -4416,31 +4416,31 @@
         <v>-8.891759343238352</v>
       </c>
       <c r="E45">
-        <v>3.196051349487258</v>
+        <v>3.196051349487266</v>
       </c>
       <c r="F45">
-        <v>0.1196735982809121</v>
+        <v>0.1196735982809103</v>
       </c>
       <c r="G45">
-        <v>-1.778844528698668</v>
+        <v>-1.778844528698669</v>
       </c>
       <c r="H45">
         <v>1.021753261518982</v>
       </c>
       <c r="I45">
-        <v>0.6479207928394688</v>
+        <v>0.6479207928394681</v>
       </c>
       <c r="J45">
-        <v>-0.07714309116273357</v>
+        <v>-0.07714309116273302</v>
       </c>
       <c r="K45">
-        <v>0.1696053312401309</v>
+        <v>0.169605331240131</v>
       </c>
       <c r="L45">
-        <v>-0.05481275848786106</v>
+        <v>-0.05481275848786168</v>
       </c>
       <c r="M45">
-        <v>-5.551115123125783e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -4454,34 +4454,34 @@
         <v>5.601004654511188</v>
       </c>
       <c r="D46">
-        <v>-3.721965237470896</v>
+        <v>-3.721965237470906</v>
       </c>
       <c r="E46">
-        <v>-6.692921526722865</v>
+        <v>-6.692921526722862</v>
       </c>
       <c r="F46">
-        <v>0.7843610874484219</v>
+        <v>0.784361087448418</v>
       </c>
       <c r="G46">
-        <v>0.7506442435955132</v>
+        <v>0.7506442435955121</v>
       </c>
       <c r="H46">
         <v>-0.7079374819870243</v>
       </c>
       <c r="I46">
-        <v>0.7253562301837416</v>
+        <v>0.7253562301837411</v>
       </c>
       <c r="J46">
-        <v>-0.02877045810876857</v>
+        <v>-0.02877045810876907</v>
       </c>
       <c r="K46">
-        <v>0.2243137206442226</v>
+        <v>0.2243137206442234</v>
       </c>
       <c r="L46">
-        <v>0.005616439710341009</v>
+        <v>0.00561643971034087</v>
       </c>
       <c r="M46">
-        <v>8.881784197001252e-16</v>
+        <v>6.661338147750939e-16</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -4495,34 +4495,34 @@
         <v>5.607889946133399</v>
       </c>
       <c r="D47">
-        <v>-4.431605130510063</v>
+        <v>-4.431605130510075</v>
       </c>
       <c r="E47">
-        <v>-6.94472604803279</v>
+        <v>-6.944726048032786</v>
       </c>
       <c r="F47">
-        <v>1.083990957982388</v>
+        <v>1.083990957982382</v>
       </c>
       <c r="G47">
-        <v>-1.834648433961298</v>
+        <v>-1.834648433961301</v>
       </c>
       <c r="H47">
-        <v>-0.4631234294617698</v>
+        <v>-0.46312342946177</v>
       </c>
       <c r="I47">
-        <v>1.077043845411065</v>
+        <v>1.077043845411064</v>
       </c>
       <c r="J47">
-        <v>-0.2790453105759769</v>
+        <v>-0.2790453105759773</v>
       </c>
       <c r="K47">
-        <v>-0.01251493357152138</v>
+        <v>-0.01251493357152</v>
       </c>
       <c r="L47">
-        <v>-0.1086052744616238</v>
+        <v>-0.1086052744616242</v>
       </c>
       <c r="M47">
-        <v>-2.220446049250313e-15</v>
+        <v>-1.77635683940025e-15</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -4536,34 +4536,34 @@
         <v>5.604740901488912</v>
       </c>
       <c r="D48">
-        <v>-3.997383897462052</v>
+        <v>-3.997383897462064</v>
       </c>
       <c r="E48">
-        <v>-6.273217054783706</v>
+        <v>-6.273217054783702</v>
       </c>
       <c r="F48">
-        <v>1.12518796373456</v>
+        <v>1.125187963734554</v>
       </c>
       <c r="G48">
-        <v>-1.617470210546033</v>
+        <v>-1.617470210546035</v>
       </c>
       <c r="H48">
-        <v>0.7375380391217391</v>
+        <v>0.7375380391217403</v>
       </c>
       <c r="I48">
         <v>-0.1208332330632065</v>
       </c>
       <c r="J48">
-        <v>0.1020685335625932</v>
+        <v>0.1020685335625944</v>
       </c>
       <c r="K48">
-        <v>-0.2081030194613466</v>
+        <v>-0.2081030194613468</v>
       </c>
       <c r="L48">
-        <v>0.004243114618792888</v>
+        <v>0.004243114618792898</v>
       </c>
       <c r="M48">
-        <v>8.881784197001252e-16</v>
+        <v>-2.664535259100376e-15</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -4577,34 +4577,34 @@
         <v>5.601202604324987</v>
       </c>
       <c r="D49">
-        <v>-1.661503097570196</v>
+        <v>-1.661503097570202</v>
       </c>
       <c r="E49">
-        <v>-5.764899286590711</v>
+        <v>-5.764899286590712</v>
       </c>
       <c r="F49">
-        <v>-0.03355852316342932</v>
+        <v>-0.03355852316342627</v>
       </c>
       <c r="G49">
-        <v>9.623152012269911</v>
+        <v>9.623152012269914</v>
       </c>
       <c r="H49">
         <v>2.507002798507855</v>
       </c>
       <c r="I49">
-        <v>1.40335416223707</v>
+        <v>1.403354162237074</v>
       </c>
       <c r="J49">
-        <v>-0.04391302942649955</v>
+        <v>-0.04391302942649823</v>
       </c>
       <c r="K49">
-        <v>-0.2380354734474424</v>
+        <v>-0.2380354734474429</v>
       </c>
       <c r="L49">
-        <v>-0.03740839006643951</v>
+        <v>-0.0374083900664397</v>
       </c>
       <c r="M49">
-        <v>1.77635683940025e-15</v>
+        <v>2.331468351712829e-15</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4618,34 +4618,34 @@
         <v>5.607993516486201</v>
       </c>
       <c r="D50">
-        <v>5.267977148867083</v>
+        <v>5.267977148867094</v>
       </c>
       <c r="E50">
-        <v>6.279777737481854</v>
+        <v>6.279777737481848</v>
       </c>
       <c r="F50">
-        <v>0.4624404665635928</v>
+        <v>0.4624404665635961</v>
       </c>
       <c r="G50">
         <v>-0.9149327393921153</v>
       </c>
       <c r="H50">
-        <v>-0.3178162679034078</v>
+        <v>-0.3178162679034089</v>
       </c>
       <c r="I50">
         <v>1.138721464269914</v>
       </c>
       <c r="J50">
-        <v>0.05483167100831151</v>
+        <v>0.05483167100831084</v>
       </c>
       <c r="K50">
-        <v>-0.1805016636499951</v>
+        <v>-0.1805016636499947</v>
       </c>
       <c r="L50">
-        <v>0.154515730406618</v>
+        <v>0.1545157304066178</v>
       </c>
       <c r="M50">
-        <v>-1.332267629550188e-15</v>
+        <v>-3.885780586188048e-16</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4662,10 +4662,10 @@
         <v>-8.140689129634955</v>
       </c>
       <c r="E51">
-        <v>3.28018690618435</v>
+        <v>3.280186906184358</v>
       </c>
       <c r="F51">
-        <v>-0.2941181117489384</v>
+        <v>-0.2941181117489388</v>
       </c>
       <c r="G51">
         <v>0.3563664206665871</v>
@@ -4674,19 +4674,19 @@
         <v>-1.647232456651636</v>
       </c>
       <c r="I51">
-        <v>-0.08368077635255264</v>
+        <v>-0.08368077635255333</v>
       </c>
       <c r="J51">
-        <v>-0.0478956997485866</v>
+        <v>-0.04789569974858681</v>
       </c>
       <c r="K51">
-        <v>-0.2174673086836234</v>
+        <v>-0.2174673086836235</v>
       </c>
       <c r="L51">
-        <v>0.05996710823793411</v>
+        <v>0.05996710823793272</v>
       </c>
       <c r="M51">
-        <v>4.440892098500626e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -4700,34 +4700,34 @@
         <v>5.610922403559508</v>
       </c>
       <c r="D52">
-        <v>-8.584426325872169</v>
+        <v>-8.584426325872167</v>
       </c>
       <c r="E52">
-        <v>2.830274764050138</v>
+        <v>2.830274764050146</v>
       </c>
       <c r="F52">
-        <v>-0.2073392033565958</v>
+        <v>-0.207339203356596</v>
       </c>
       <c r="G52">
-        <v>0.3812026692725503</v>
+        <v>0.3812026692725498</v>
       </c>
       <c r="H52">
-        <v>-0.8423990255599469</v>
+        <v>-0.8423990255599478</v>
       </c>
       <c r="I52">
         <v>1.489352810509923</v>
       </c>
       <c r="J52">
-        <v>0.6691223086193319</v>
+        <v>0.6691223086193312</v>
       </c>
       <c r="K52">
-        <v>-0.07588698352679783</v>
+        <v>-0.07588698352679719</v>
       </c>
       <c r="L52">
-        <v>0.08261433532829388</v>
+        <v>0.08261433532829296</v>
       </c>
       <c r="M52">
-        <v>1.332267629550188e-15</v>
+        <v>1.110223024625157e-15</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4741,34 +4741,34 @@
         <v>5.613107430283859</v>
       </c>
       <c r="D53">
-        <v>-4.308900613485974</v>
+        <v>-4.308900613485984</v>
       </c>
       <c r="E53">
-        <v>-6.690213484506155</v>
+        <v>-6.690213484506151</v>
       </c>
       <c r="F53">
-        <v>1.127860913471281</v>
+        <v>1.127860913471275</v>
       </c>
       <c r="G53">
-        <v>-2.110670914343218</v>
+        <v>-2.110670914343221</v>
       </c>
       <c r="H53">
         <v>-0.3107774466622605</v>
       </c>
       <c r="I53">
-        <v>0.5753438754081671</v>
+        <v>0.5753438754081663</v>
       </c>
       <c r="J53">
-        <v>0.2203682289556174</v>
+        <v>0.2203682289556173</v>
       </c>
       <c r="K53">
-        <v>-0.3493783397574103</v>
+        <v>-0.3493783397574092</v>
       </c>
       <c r="L53">
-        <v>-0.01499454523835088</v>
+        <v>-0.01499454523835109</v>
       </c>
       <c r="M53">
-        <v>1.77635683940025e-15</v>
+        <v>1.554312234475219e-15</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4782,34 +4782,34 @@
         <v>5.60811216050709</v>
       </c>
       <c r="D54">
-        <v>-3.877712878940949</v>
+        <v>-3.877712878940961</v>
       </c>
       <c r="E54">
-        <v>-6.363390198235953</v>
+        <v>-6.363390198235951</v>
       </c>
       <c r="F54">
-        <v>1.012060309790651</v>
+        <v>1.012060309790646</v>
       </c>
       <c r="G54">
-        <v>-1.106510404283932</v>
+        <v>-1.106510404283934</v>
       </c>
       <c r="H54">
-        <v>-0.160432120191437</v>
+        <v>-0.1604321201914365</v>
       </c>
       <c r="I54">
-        <v>-0.05042747774056098</v>
+        <v>-0.05042747774056165</v>
       </c>
       <c r="J54">
-        <v>0.1088851978621738</v>
+        <v>0.108885197862174</v>
       </c>
       <c r="K54">
-        <v>-0.2572240490643716</v>
+        <v>-0.2572240490643711</v>
       </c>
       <c r="L54">
-        <v>0.05918089373039508</v>
+        <v>0.05918089373039503</v>
       </c>
       <c r="M54">
-        <v>8.881784197001252e-16</v>
+        <v>-1.110223024625157e-15</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4823,31 +4823,31 @@
         <v>5.606212235503977</v>
       </c>
       <c r="D55">
-        <v>5.25124518642061</v>
+        <v>5.251245186420619</v>
       </c>
       <c r="E55">
-        <v>4.710964489827845</v>
+        <v>4.710964489827839</v>
       </c>
       <c r="F55">
-        <v>0.4565272556816955</v>
+        <v>0.4565272556816997</v>
       </c>
       <c r="G55">
-        <v>1.232086480033087</v>
+        <v>1.232086480033089</v>
       </c>
       <c r="H55">
-        <v>-0.1085058596195044</v>
+        <v>-0.1085058596195039</v>
       </c>
       <c r="I55">
         <v>-1.005904737779539</v>
       </c>
       <c r="J55">
-        <v>-0.2533456044351302</v>
+        <v>-0.25334560443513</v>
       </c>
       <c r="K55">
-        <v>0.06625971836408154</v>
+        <v>0.06625971836408041</v>
       </c>
       <c r="L55">
-        <v>0.08106172384687634</v>
+        <v>0.08106172384687671</v>
       </c>
       <c r="M55">
         <v>-8.881784197001252e-16</v>
@@ -4867,16 +4867,16 @@
         <v>7.935587316310174</v>
       </c>
       <c r="E56">
-        <v>-3.514391885631083</v>
+        <v>-3.514391885631091</v>
       </c>
       <c r="F56">
-        <v>1.611120710798337</v>
+        <v>1.611120710798336</v>
       </c>
       <c r="G56">
-        <v>-0.9803110595962449</v>
+        <v>-0.9803110595962455</v>
       </c>
       <c r="H56">
-        <v>0.5170149503438914</v>
+        <v>0.5170149503438913</v>
       </c>
       <c r="I56">
         <v>-0.1789874269348496</v>
@@ -4885,13 +4885,13 @@
         <v>0.1687745021932294</v>
       </c>
       <c r="K56">
-        <v>0.3570051339237577</v>
+        <v>0.3570051339237579</v>
       </c>
       <c r="L56">
-        <v>-0.05515710316537153</v>
+        <v>-0.05515710316537065</v>
       </c>
       <c r="M56">
-        <v>-1.165734175856414e-15</v>
+        <v>-1.110223024625157e-15</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4905,34 +4905,34 @@
         <v>5.606676167416156</v>
       </c>
       <c r="D57">
-        <v>4.712983274380311</v>
+        <v>4.712983274380321</v>
       </c>
       <c r="E57">
-        <v>6.7355021095042</v>
+        <v>6.735502109504197</v>
       </c>
       <c r="F57">
-        <v>-0.4876042880840119</v>
+        <v>-0.4876042880840083</v>
       </c>
       <c r="G57">
-        <v>-1.243680563466372</v>
+        <v>-1.243680563466371</v>
       </c>
       <c r="H57">
-        <v>0.5535008279053385</v>
+        <v>0.5535008279053381</v>
       </c>
       <c r="I57">
-        <v>-0.09593664855532574</v>
+        <v>-0.09593664855532549</v>
       </c>
       <c r="J57">
-        <v>0.02619042631974237</v>
+        <v>0.02619042631974219</v>
       </c>
       <c r="K57">
-        <v>-0.03481507602895969</v>
+        <v>-0.03481507602895985</v>
       </c>
       <c r="L57">
-        <v>0.01163211800269442</v>
+        <v>0.01163211800269459</v>
       </c>
       <c r="M57">
-        <v>-1.332267629550188e-15</v>
+        <v>-2.220446049250313e-16</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4946,34 +4946,34 @@
         <v>5.609498753555931</v>
       </c>
       <c r="D58">
-        <v>-1.182601471701315</v>
+        <v>-1.182601471701312</v>
       </c>
       <c r="E58">
-        <v>3.71933671580826</v>
+        <v>3.719336715808259</v>
       </c>
       <c r="F58">
-        <v>6.827408639378408</v>
+        <v>6.827408639378405</v>
       </c>
       <c r="G58">
-        <v>0.4042056609168497</v>
+        <v>0.404205660916847</v>
       </c>
       <c r="H58">
-        <v>-0.4021677477041741</v>
+        <v>-0.4021677477041723</v>
       </c>
       <c r="I58">
-        <v>-0.4610750596896813</v>
+        <v>-0.4610750596896817</v>
       </c>
       <c r="J58">
-        <v>-0.2584820637871213</v>
+        <v>-0.2584820637871201</v>
       </c>
       <c r="K58">
-        <v>-0.06280978952413442</v>
+        <v>-0.06280978952413531</v>
       </c>
       <c r="L58">
-        <v>-0.05325190909610555</v>
+        <v>-0.05325190909610528</v>
       </c>
       <c r="M58">
-        <v>-1.77635683940025e-15</v>
+        <v>-1.110223024625157e-15</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -4990,31 +4990,31 @@
         <v>-8.103921575441367</v>
       </c>
       <c r="E59">
-        <v>3.73771735037155</v>
+        <v>3.737717350371558</v>
       </c>
       <c r="F59">
-        <v>-0.1937277923617249</v>
+        <v>-0.193727792361725</v>
       </c>
       <c r="G59">
         <v>0.4500324531978179</v>
       </c>
       <c r="H59">
-        <v>0.1350971334593906</v>
+        <v>0.1350971334593916</v>
       </c>
       <c r="I59">
-        <v>-0.6314512876703614</v>
+        <v>-0.6314512876703616</v>
       </c>
       <c r="J59">
-        <v>0.259528280476904</v>
+        <v>0.2595282804769045</v>
       </c>
       <c r="K59">
-        <v>0.2814894623915981</v>
+        <v>0.2814894623915971</v>
       </c>
       <c r="L59">
-        <v>-0.08133311057121902</v>
+        <v>-0.081333110571219</v>
       </c>
       <c r="M59">
-        <v>1.054711873393899e-15</v>
+        <v>-5.551115123125783e-16</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -5028,34 +5028,34 @@
         <v>5.609490391007031</v>
       </c>
       <c r="D60">
-        <v>4.44734765975779</v>
+        <v>4.447347659757801</v>
       </c>
       <c r="E60">
-        <v>7.162350512809319</v>
+        <v>7.162350512809315</v>
       </c>
       <c r="F60">
-        <v>0.0577725386296247</v>
+        <v>0.05777253862962801</v>
       </c>
       <c r="G60">
-        <v>-0.9492402654693496</v>
+        <v>-0.949240265469349</v>
       </c>
       <c r="H60">
-        <v>0.8418879445900527</v>
+        <v>0.8418879445900522</v>
       </c>
       <c r="I60">
-        <v>0.6249392131322995</v>
+        <v>0.6249392131323003</v>
       </c>
       <c r="J60">
-        <v>0.3854806523818564</v>
+        <v>0.3854806523818561</v>
       </c>
       <c r="K60">
-        <v>0.07444705811362205</v>
+        <v>0.07444705811362216</v>
       </c>
       <c r="L60">
-        <v>-0.1659386264679577</v>
+        <v>-0.1659386264679572</v>
       </c>
       <c r="M60">
-        <v>-1.332267629550188e-15</v>
+        <v>-2.220446049250313e-16</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -5069,34 +5069,34 @@
         <v>5.612085903268771</v>
       </c>
       <c r="D61">
-        <v>3.63321205342046</v>
+        <v>3.63321205342047</v>
       </c>
       <c r="E61">
-        <v>5.866298963884434</v>
+        <v>5.866298963884431</v>
       </c>
       <c r="F61">
-        <v>-0.4922473860695851</v>
+        <v>-0.4922473860695819</v>
       </c>
       <c r="G61">
-        <v>-0.896338807090308</v>
+        <v>-0.8963388070903074</v>
       </c>
       <c r="H61">
-        <v>0.3478165566441409</v>
+        <v>0.3478165566441404</v>
       </c>
       <c r="I61">
-        <v>0.08517484357221693</v>
+        <v>0.08517484357221765</v>
       </c>
       <c r="J61">
-        <v>0.5211962513550454</v>
+        <v>0.5211962513550449</v>
       </c>
       <c r="K61">
-        <v>-0.01607924754493056</v>
+        <v>-0.01607924754493059</v>
       </c>
       <c r="L61">
-        <v>0.05369137690549187</v>
+        <v>0.05369137690549275</v>
       </c>
       <c r="M61">
-        <v>-8.881784197001252e-16</v>
+        <v>-5.551115123125783e-16</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -5110,34 +5110,34 @@
         <v>5.612659722969409</v>
       </c>
       <c r="D62">
-        <v>-7.294432231432451</v>
+        <v>-7.294432231432452</v>
       </c>
       <c r="E62">
-        <v>1.923489761420951</v>
+        <v>1.923489761420957</v>
       </c>
       <c r="F62">
-        <v>-0.05179249433219248</v>
+        <v>-0.05179249433219368</v>
       </c>
       <c r="G62">
-        <v>0.5142545235732441</v>
+        <v>0.5142545235732439</v>
       </c>
       <c r="H62">
-        <v>-0.6126005813166872</v>
+        <v>-0.6126005813166867</v>
       </c>
       <c r="I62">
-        <v>-0.5733147482101789</v>
+        <v>-0.573314748210179</v>
       </c>
       <c r="J62">
-        <v>0.5972964503385945</v>
+        <v>0.5972964503385949</v>
       </c>
       <c r="K62">
-        <v>0.2840567270074508</v>
+        <v>0.2840567270074498</v>
       </c>
       <c r="L62">
-        <v>-0.1093910242547741</v>
+        <v>-0.1093910242547739</v>
       </c>
       <c r="M62">
-        <v>1.332267629550188e-15</v>
+        <v>-2.220446049250313e-16</v>
       </c>
     </row>
   </sheetData>
@@ -5205,34 +5205,34 @@
         <v>5.608822868711708</v>
       </c>
       <c r="D2">
-        <v>4.698413454603394</v>
+        <v>4.69841345460339</v>
       </c>
       <c r="E2">
-        <v>-5.660570508579911</v>
+        <v>-5.660570508579906</v>
       </c>
       <c r="F2">
-        <v>1.390686270673661</v>
+        <v>1.390686270673667</v>
       </c>
       <c r="G2">
-        <v>5.527158799454878</v>
+        <v>5.527158799454879</v>
       </c>
       <c r="H2">
-        <v>0.3774786555226323</v>
+        <v>0.3774786555226334</v>
       </c>
       <c r="I2">
-        <v>-0.283332950565107</v>
+        <v>-0.2833329505651042</v>
       </c>
       <c r="J2">
-        <v>0.01193697373535572</v>
+        <v>0.01193697373535498</v>
       </c>
       <c r="K2">
-        <v>0.3212980102715653</v>
+        <v>0.3212980102715655</v>
       </c>
       <c r="L2">
-        <v>0.07813486010658703</v>
+        <v>0.07813486010658713</v>
       </c>
       <c r="M2">
-        <v>-3.885780586188048e-16</v>
+        <v>-2.220446049250313e-16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5246,34 +5246,34 @@
         <v>5.599293527974555</v>
       </c>
       <c r="D3">
-        <v>9.997270763923693</v>
+        <v>9.997270763923684</v>
       </c>
       <c r="E3">
-        <v>6.110398564681311</v>
+        <v>6.110398564681313</v>
       </c>
       <c r="F3">
-        <v>-0.7469520245589103</v>
+        <v>-0.7469520245589085</v>
       </c>
       <c r="G3">
-        <v>0.3765509404159127</v>
+        <v>0.3765509404159086</v>
       </c>
       <c r="H3">
-        <v>-2.500804006574505</v>
+        <v>-2.500804006574508</v>
       </c>
       <c r="I3">
-        <v>0.9813384798783165</v>
+        <v>0.9813384798783085</v>
       </c>
       <c r="J3">
-        <v>0.261553559234095</v>
+        <v>0.2615535592340973</v>
       </c>
       <c r="K3">
-        <v>-0.3293332627360047</v>
+        <v>-0.3293332627360037</v>
       </c>
       <c r="L3">
-        <v>-0.09218001301948277</v>
+        <v>-0.0921800130194832</v>
       </c>
       <c r="M3">
-        <v>-4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5287,34 +5287,34 @@
         <v>5.598278676394689</v>
       </c>
       <c r="D4">
-        <v>3.906789870249527</v>
+        <v>3.906789870249523</v>
       </c>
       <c r="E4">
-        <v>-3.943415728327714</v>
+        <v>-3.94341572832771</v>
       </c>
       <c r="F4">
-        <v>3.10804615795166</v>
+        <v>3.108046157951665</v>
       </c>
       <c r="G4">
         <v>5.802022334970665</v>
       </c>
       <c r="H4">
-        <v>0.3252507529391863</v>
+        <v>0.325250752939191</v>
       </c>
       <c r="I4">
-        <v>-1.020393636852258</v>
+        <v>-1.020393636852255</v>
       </c>
       <c r="J4">
-        <v>0.1637335300575547</v>
+        <v>0.1637335300575541</v>
       </c>
       <c r="K4">
-        <v>-0.07946269082322174</v>
+        <v>-0.07946269082322135</v>
       </c>
       <c r="L4">
-        <v>0.0531407801351417</v>
+        <v>0.05314078013514148</v>
       </c>
       <c r="M4">
-        <v>1.110223024625157e-15</v>
+        <v>-2.220446049250313e-16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5328,34 +5328,34 @@
         <v>5.59694071670348</v>
       </c>
       <c r="D5">
-        <v>-3.635359458699291</v>
+        <v>-3.635359458699287</v>
       </c>
       <c r="E5">
-        <v>-1.382263633240787</v>
+        <v>-1.382263633240789</v>
       </c>
       <c r="F5">
-        <v>-0.9941861578510274</v>
+        <v>-0.9941861578510279</v>
       </c>
       <c r="G5">
-        <v>-0.3244927422733614</v>
+        <v>-0.3244927422733604</v>
       </c>
       <c r="H5">
-        <v>-0.3560553125866939</v>
+        <v>-0.3560553125866941</v>
       </c>
       <c r="I5">
-        <v>0.0003633905586044621</v>
+        <v>0.0003633905586025011</v>
       </c>
       <c r="J5">
         <v>0.1277990864189304</v>
       </c>
       <c r="K5">
-        <v>0.04693340871981596</v>
+        <v>0.04693340871981683</v>
       </c>
       <c r="L5">
-        <v>-0.1494543403089204</v>
+        <v>-0.1494543403089196</v>
       </c>
       <c r="M5">
-        <v>1.110223024625157e-15</v>
+        <v>1.054711873393899e-15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5369,34 +5369,34 @@
         <v>5.596798580297507</v>
       </c>
       <c r="D6">
-        <v>-3.800598245942041</v>
+        <v>-3.800598245942038</v>
       </c>
       <c r="E6">
-        <v>-1.648041084277586</v>
+        <v>-1.648041084277588</v>
       </c>
       <c r="F6">
-        <v>-1.514749220571853</v>
+        <v>-1.514749220571854</v>
       </c>
       <c r="G6">
-        <v>-0.2161318756002125</v>
+        <v>-0.2161318756002102</v>
       </c>
       <c r="H6">
-        <v>0.7409681406468372</v>
+        <v>0.7409681406468341</v>
       </c>
       <c r="I6">
-        <v>0.6402463780126121</v>
+        <v>0.6402463780126133</v>
       </c>
       <c r="J6">
-        <v>-0.34393758774574</v>
+        <v>-0.3439375877457397</v>
       </c>
       <c r="K6">
-        <v>-0.1212831889253021</v>
+        <v>-0.1212831889253017</v>
       </c>
       <c r="L6">
-        <v>-0.06144567457647573</v>
+        <v>-0.06144567457647598</v>
       </c>
       <c r="M6">
-        <v>1.110223024625157e-15</v>
+        <v>1.193489751472043e-15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5410,34 +5410,34 @@
         <v>5.597395642465944</v>
       </c>
       <c r="D7">
-        <v>-3.519755883875459</v>
+        <v>-3.519755883875455</v>
       </c>
       <c r="E7">
-        <v>-0.5408410441769504</v>
+        <v>-0.5408410441769519</v>
       </c>
       <c r="F7">
-        <v>-0.2413841870807613</v>
+        <v>-0.2413841870807627</v>
       </c>
       <c r="G7">
-        <v>-0.06693727522857702</v>
+        <v>-0.0669372752285755</v>
       </c>
       <c r="H7">
-        <v>0.8711407202718154</v>
+        <v>0.8711407202718162</v>
       </c>
       <c r="I7">
-        <v>-0.2504888257919157</v>
+        <v>-0.2504888257919136</v>
       </c>
       <c r="J7">
-        <v>0.06309682169592634</v>
+        <v>0.06309682169592631</v>
       </c>
       <c r="K7">
-        <v>-0.01048461686229755</v>
+        <v>-0.01048461686229678</v>
       </c>
       <c r="L7">
-        <v>-0.1103193353675547</v>
+        <v>-0.1103193353675542</v>
       </c>
       <c r="M7">
-        <v>1.110223024625157e-15</v>
+        <v>1.360023205165817e-15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5451,34 +5451,34 @@
         <v>5.597446007335155</v>
       </c>
       <c r="D8">
-        <v>-3.2987350655092</v>
+        <v>-3.298735065509196</v>
       </c>
       <c r="E8">
-        <v>-1.670124385800353</v>
+        <v>-1.670124385800355</v>
       </c>
       <c r="F8">
         <v>-1.030467527998609</v>
       </c>
       <c r="G8">
-        <v>-0.8187664065364135</v>
+        <v>-0.8187664065364119</v>
       </c>
       <c r="H8">
-        <v>0.5440476059301986</v>
+        <v>0.5440476059301977</v>
       </c>
       <c r="I8">
-        <v>0.02646808311020579</v>
+        <v>0.02646808311020715</v>
       </c>
       <c r="J8">
-        <v>-0.1660927291543701</v>
+        <v>-0.1660927291543707</v>
       </c>
       <c r="K8">
-        <v>0.0641427823364011</v>
+        <v>0.0641427823364018</v>
       </c>
       <c r="L8">
-        <v>-0.1898253944229331</v>
+        <v>-0.1898253944229327</v>
       </c>
       <c r="M8">
-        <v>4.440892098500626e-16</v>
+        <v>7.216449660063518e-16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5492,34 +5492,34 @@
         <v>5.597720101004323</v>
       </c>
       <c r="D9">
-        <v>-4.397839436296687</v>
+        <v>-4.397839436296683</v>
       </c>
       <c r="E9">
-        <v>-0.6114955191945834</v>
+        <v>-0.611495519194585</v>
       </c>
       <c r="F9">
-        <v>0.03575303283564242</v>
+        <v>0.03575303283564059</v>
       </c>
       <c r="G9">
-        <v>-0.5334112041876203</v>
+        <v>-0.53341120418762</v>
       </c>
       <c r="H9">
-        <v>0.05855549376810466</v>
+        <v>0.0585554937681077</v>
       </c>
       <c r="I9">
-        <v>-0.8519529591902344</v>
+        <v>-0.8519529591902345</v>
       </c>
       <c r="J9">
-        <v>-0.06383120182933491</v>
+        <v>-0.06383120182933498</v>
       </c>
       <c r="K9">
-        <v>-0.04695579157949789</v>
+        <v>-0.04695579157949729</v>
       </c>
       <c r="L9">
-        <v>0.0003259975046999639</v>
+        <v>0.0003259975047004149</v>
       </c>
       <c r="M9">
-        <v>2.220446049250313e-15</v>
+        <v>3.469446951953614e-16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5533,34 +5533,34 @@
         <v>5.598365769910693</v>
       </c>
       <c r="D10">
-        <v>-2.548508808116329</v>
+        <v>-2.548508808116327</v>
       </c>
       <c r="E10">
-        <v>-1.710290405923073</v>
+        <v>-1.710290405923075</v>
       </c>
       <c r="F10">
-        <v>-1.317977051972593</v>
+        <v>-1.317977051972594</v>
       </c>
       <c r="G10">
-        <v>-0.5132734608231658</v>
+        <v>-0.5132734608231639</v>
       </c>
       <c r="H10">
-        <v>0.3807276882262638</v>
+        <v>0.3807276882262612</v>
       </c>
       <c r="I10">
-        <v>0.575088675456549</v>
+        <v>0.5750886754565491</v>
       </c>
       <c r="J10">
-        <v>-0.05736836334038772</v>
+        <v>-0.05736836334038807</v>
       </c>
       <c r="K10">
-        <v>0.004320615606833772</v>
+        <v>0.004320615606834388</v>
       </c>
       <c r="L10">
-        <v>0.1165032561545571</v>
+        <v>0.1165032561545575</v>
       </c>
       <c r="M10">
-        <v>6.661338147750939e-16</v>
+        <v>9.436895709313831e-16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5574,34 +5574,34 @@
         <v>5.600000471917006</v>
       </c>
       <c r="D11">
-        <v>-5.224838629990352</v>
+        <v>-5.224838629990351</v>
       </c>
       <c r="E11">
-        <v>8.60250426785916</v>
+        <v>8.602504267859153</v>
       </c>
       <c r="F11">
-        <v>-2.427605246387985</v>
+        <v>-2.427605246387989</v>
       </c>
       <c r="G11">
-        <v>0.3451074150334227</v>
+        <v>0.3451074150334241</v>
       </c>
       <c r="H11">
         <v>-1.160395954897089</v>
       </c>
       <c r="I11">
-        <v>-0.4936899916483068</v>
+        <v>-0.4936899916483101</v>
       </c>
       <c r="J11">
-        <v>-0.1450722343630807</v>
+        <v>-0.1450722343630793</v>
       </c>
       <c r="K11">
-        <v>0.04218388068966659</v>
+        <v>0.0421838806896669</v>
       </c>
       <c r="L11">
-        <v>-0.1033805221840804</v>
+        <v>-0.1033805221840792</v>
       </c>
       <c r="M11">
-        <v>4.510281037539698e-16</v>
+        <v>1.110223024625157e-15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5615,34 +5615,34 @@
         <v>5.600003817796717</v>
       </c>
       <c r="D12">
-        <v>-3.642799509983487</v>
+        <v>-3.642799509983483</v>
       </c>
       <c r="E12">
-        <v>0.121709240584334</v>
+        <v>0.1217092405843314</v>
       </c>
       <c r="F12">
-        <v>-1.413390822236642</v>
+        <v>-1.413390822236644</v>
       </c>
       <c r="G12">
-        <v>-0.3749818130891006</v>
+        <v>-0.3749818130890989</v>
       </c>
       <c r="H12">
-        <v>0.07010397790750049</v>
+        <v>0.07010397790749708</v>
       </c>
       <c r="I12">
-        <v>0.8141025225669786</v>
+        <v>0.8141025225669779</v>
       </c>
       <c r="J12">
-        <v>-0.2006166765381935</v>
+        <v>-0.200616676538194</v>
       </c>
       <c r="K12">
-        <v>0.08709502834488886</v>
+        <v>0.08709502834488911</v>
       </c>
       <c r="L12">
-        <v>0.2344749763751165</v>
+        <v>0.2344749763751167</v>
       </c>
       <c r="M12">
-        <v>8.881784197001252e-16</v>
+        <v>9.436895709313831e-16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5656,34 +5656,34 @@
         <v>5.600053095749235</v>
       </c>
       <c r="D13">
-        <v>-3.124233333036466</v>
+        <v>-3.124233333036463</v>
       </c>
       <c r="E13">
-        <v>-2.032988004520111</v>
+        <v>-2.032988004520112</v>
       </c>
       <c r="F13">
-        <v>-0.7620445692836647</v>
+        <v>-0.7620445692836655</v>
       </c>
       <c r="G13">
-        <v>-0.3832725395074311</v>
+        <v>-0.3832725395074303</v>
       </c>
       <c r="H13">
         <v>0.3182826350890879</v>
       </c>
       <c r="I13">
-        <v>-0.152068148903572</v>
+        <v>-0.1520681489035719</v>
       </c>
       <c r="J13">
-        <v>0.2280365406019161</v>
+        <v>0.2280365406019162</v>
       </c>
       <c r="K13">
-        <v>-0.05233716681926705</v>
+        <v>-0.0523371668192659</v>
       </c>
       <c r="L13">
-        <v>-0.1916362814112425</v>
+        <v>-0.1916362814112419</v>
       </c>
       <c r="M13">
-        <v>1.110223024625157e-15</v>
+        <v>1.137978600240785e-15</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5697,34 +5697,34 @@
         <v>5.600127822754469</v>
       </c>
       <c r="D14">
-        <v>-4.717551389518041</v>
+        <v>-4.717551389518037</v>
       </c>
       <c r="E14">
-        <v>-0.2460296258474496</v>
+        <v>-0.2460296258474516</v>
       </c>
       <c r="F14">
-        <v>-0.1816712959400998</v>
+        <v>-0.1816712959401015</v>
       </c>
       <c r="G14">
-        <v>-0.6480082941817513</v>
+        <v>-0.6480082941817505</v>
       </c>
       <c r="H14">
-        <v>0.6273198717084371</v>
+        <v>0.6273198717084375</v>
       </c>
       <c r="I14">
-        <v>-0.3963755521717466</v>
+        <v>-0.396375552171745</v>
       </c>
       <c r="J14">
-        <v>-0.1502820120164466</v>
+        <v>-0.1502820120164461</v>
       </c>
       <c r="K14">
-        <v>-0.0019393814303467</v>
+        <v>-0.001939381430345738</v>
       </c>
       <c r="L14">
-        <v>-0.08728778076060756</v>
+        <v>-0.08728778076060684</v>
       </c>
       <c r="M14">
-        <v>1.332267629550188e-15</v>
+        <v>1.269817584415023e-15</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -5738,34 +5738,34 @@
         <v>5.60036119386722</v>
       </c>
       <c r="D15">
-        <v>-6.231720684939893</v>
+        <v>-6.231720684939886</v>
       </c>
       <c r="E15">
         <v>9.157877890290631</v>
       </c>
       <c r="F15">
-        <v>7.825890970394489</v>
+        <v>7.825890970394481</v>
       </c>
       <c r="G15">
-        <v>0.25435493126901</v>
+        <v>0.254354931269006</v>
       </c>
       <c r="H15">
-        <v>1.225980247621808</v>
+        <v>1.225980247621807</v>
       </c>
       <c r="I15">
-        <v>1.035252608510477</v>
+        <v>1.035252608510481</v>
       </c>
       <c r="J15">
-        <v>0.5016819874256729</v>
+        <v>0.5016819874256737</v>
       </c>
       <c r="K15">
-        <v>-0.2064030420153708</v>
+        <v>-0.2064030420153691</v>
       </c>
       <c r="L15">
-        <v>-0.05239993402929471</v>
+        <v>-0.05239993402929444</v>
       </c>
       <c r="M15">
-        <v>1.332267629550188e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -5779,34 +5779,34 @@
         <v>5.601039032499569</v>
       </c>
       <c r="D16">
-        <v>-4.51008523440783</v>
+        <v>-4.510085234407826</v>
       </c>
       <c r="E16">
-        <v>-0.8060384436740394</v>
+        <v>-0.8060384436740406</v>
       </c>
       <c r="F16">
-        <v>1.190517966192755</v>
+        <v>1.190517966192753</v>
       </c>
       <c r="G16">
         <v>-0.4567832566273983</v>
       </c>
       <c r="H16">
-        <v>-0.1150887880396899</v>
+        <v>-0.1150887880396875</v>
       </c>
       <c r="I16">
-        <v>-0.577799490566095</v>
+        <v>-0.5777994905660958</v>
       </c>
       <c r="J16">
-        <v>0.0802908721129897</v>
+        <v>0.08029087211298935</v>
       </c>
       <c r="K16">
-        <v>0.06249913348579225</v>
+        <v>0.06249913348579313</v>
       </c>
       <c r="L16">
-        <v>-0.05431296039686564</v>
+        <v>-0.05431296039686517</v>
       </c>
       <c r="M16">
-        <v>2.220446049250313e-15</v>
+        <v>1.443289932012704e-15</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -5823,31 +5823,31 @@
         <v>-4.012390859012814</v>
       </c>
       <c r="E17">
-        <v>8.219732801940498</v>
+        <v>8.219732801940493</v>
       </c>
       <c r="F17">
-        <v>-2.714528265561588</v>
+        <v>-2.714528265561592</v>
       </c>
       <c r="G17">
-        <v>1.286090561580511</v>
+        <v>1.286090561580513</v>
       </c>
       <c r="H17">
-        <v>-1.068706135151807</v>
+        <v>-1.068706135151809</v>
       </c>
       <c r="I17">
-        <v>0.2237998446718962</v>
+        <v>0.223799844671893</v>
       </c>
       <c r="J17">
-        <v>-0.06961820755036174</v>
+        <v>-0.06961820755036117</v>
       </c>
       <c r="K17">
-        <v>0.09379845791024571</v>
+        <v>0.09379845791024535</v>
       </c>
       <c r="L17">
-        <v>0.2547070145134027</v>
+        <v>0.2547070145134036</v>
       </c>
       <c r="M17">
-        <v>-7.216449660063518e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -5861,34 +5861,34 @@
         <v>5.602266998711832</v>
       </c>
       <c r="D18">
-        <v>-4.410784545372794</v>
+        <v>-4.410784545372789</v>
       </c>
       <c r="E18">
-        <v>0.6662478313209281</v>
+        <v>0.6662478313209267</v>
       </c>
       <c r="F18">
-        <v>0.5495535574630965</v>
+        <v>0.5495535574630948</v>
       </c>
       <c r="G18">
-        <v>0.1574705294098749</v>
+        <v>0.1574705294098748</v>
       </c>
       <c r="H18">
-        <v>-0.5502205596328108</v>
+        <v>-0.550220559632808</v>
       </c>
       <c r="I18">
-        <v>-0.7835663714704518</v>
+        <v>-0.7835663714704533</v>
       </c>
       <c r="J18">
-        <v>0.008548490311501305</v>
+        <v>0.008548490311501528</v>
       </c>
       <c r="K18">
-        <v>-0.06520729363229953</v>
+        <v>-0.06520729363229892</v>
       </c>
       <c r="L18">
-        <v>-0.02442831370759271</v>
+        <v>-0.02442831370759246</v>
       </c>
       <c r="M18">
-        <v>2.109423746787797e-15</v>
+        <v>1.054711873393899e-15</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -5902,34 +5902,34 @@
         <v>5.602793811724544</v>
       </c>
       <c r="D19">
-        <v>-5.784835544476557</v>
+        <v>-5.78483554447655</v>
       </c>
       <c r="E19">
-        <v>-0.05321802246943211</v>
+        <v>-0.05321802246943477</v>
       </c>
       <c r="F19">
-        <v>1.737406935323274</v>
+        <v>1.737406935323271</v>
       </c>
       <c r="G19">
-        <v>-0.9625291709800767</v>
+        <v>-0.9625291709800766</v>
       </c>
       <c r="H19">
-        <v>0.6948619335502318</v>
+        <v>0.6948619335502334</v>
       </c>
       <c r="I19">
-        <v>-0.2706412081162335</v>
+        <v>-0.2706412081162323</v>
       </c>
       <c r="J19">
-        <v>-0.05647561210582355</v>
+        <v>-0.05647561210582373</v>
       </c>
       <c r="K19">
-        <v>-0.228877704795891</v>
+        <v>-0.2288777047958904</v>
       </c>
       <c r="L19">
-        <v>0.01172669093896465</v>
+        <v>0.01172669093896478</v>
       </c>
       <c r="M19">
-        <v>2.220446049250313e-15</v>
+        <v>7.771561172376096e-16</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -5943,34 +5943,34 @@
         <v>5.603702954193941</v>
       </c>
       <c r="D20">
-        <v>-4.279796975515697</v>
+        <v>-4.279796975515692</v>
       </c>
       <c r="E20">
-        <v>8.193860550670635</v>
+        <v>8.19386055067063</v>
       </c>
       <c r="F20">
-        <v>-1.604526763378098</v>
+        <v>-1.604526763378102</v>
       </c>
       <c r="G20">
-        <v>1.298621465081383</v>
+        <v>1.298621465081384</v>
       </c>
       <c r="H20">
-        <v>-0.8288620032152617</v>
+        <v>-0.8288620032152638</v>
       </c>
       <c r="I20">
-        <v>0.334934506547665</v>
+        <v>0.3349345065476628</v>
       </c>
       <c r="J20">
-        <v>-0.4010994312722361</v>
+        <v>-0.4010994312722352</v>
       </c>
       <c r="K20">
-        <v>-0.102785272312821</v>
+        <v>-0.1027852723128214</v>
       </c>
       <c r="L20">
-        <v>0.319399840441714</v>
+        <v>0.3193998404417139</v>
       </c>
       <c r="M20">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -5984,34 +5984,34 @@
         <v>5.603319110589768</v>
       </c>
       <c r="D21">
-        <v>-8.426912800575494</v>
+        <v>-8.426912800575481</v>
       </c>
       <c r="E21">
-        <v>-0.1907494242870744</v>
+        <v>-0.1907494242870732</v>
       </c>
       <c r="F21">
-        <v>8.817839789361631</v>
+        <v>8.817839789361628</v>
       </c>
       <c r="G21">
-        <v>-2.612983792334888</v>
+        <v>-2.612983792334891</v>
       </c>
       <c r="H21">
-        <v>2.909695768923473</v>
+        <v>2.909695768923475</v>
       </c>
       <c r="I21">
-        <v>0.3470390836307463</v>
+        <v>0.3470390836307544</v>
       </c>
       <c r="J21">
-        <v>-0.1500850677640168</v>
+        <v>-0.1500850677640175</v>
       </c>
       <c r="K21">
-        <v>-0.08299683503647233</v>
+        <v>-0.08299683503647079</v>
       </c>
       <c r="L21">
-        <v>-0.01162209125710879</v>
+        <v>-0.011622091257109</v>
       </c>
       <c r="M21">
-        <v>2.55351295663786e-15</v>
+        <v>1.332267629550188e-15</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -6025,34 +6025,34 @@
         <v>5.603795657083984</v>
       </c>
       <c r="D22">
-        <v>-4.907880268696306</v>
+        <v>-4.907880268696301</v>
       </c>
       <c r="E22">
-        <v>-0.3313578398717111</v>
+        <v>-0.3313578398717125</v>
       </c>
       <c r="F22">
-        <v>0.8531870084059066</v>
+        <v>0.8531870084059048</v>
       </c>
       <c r="G22">
-        <v>-0.4357254154160231</v>
+        <v>-0.4357254154160224</v>
       </c>
       <c r="H22">
-        <v>0.798638532133958</v>
+        <v>0.7986385321339591</v>
       </c>
       <c r="I22">
-        <v>-0.3143570661304839</v>
+        <v>-0.3143570661304816</v>
       </c>
       <c r="J22">
-        <v>-0.3118320422668654</v>
+        <v>-0.311832042266865</v>
       </c>
       <c r="K22">
-        <v>-0.2331566397119375</v>
+        <v>-0.2331566397119367</v>
       </c>
       <c r="L22">
-        <v>-0.1320115856082411</v>
+        <v>-0.1320115856082414</v>
       </c>
       <c r="M22">
-        <v>2.220446049250313e-15</v>
+        <v>1.27675647831893e-15</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -6066,34 +6066,34 @@
         <v>5.605663949076493</v>
       </c>
       <c r="D23">
-        <v>-4.396695939299281</v>
+        <v>-4.396695939299277</v>
       </c>
       <c r="E23">
-        <v>0.3668508790601935</v>
+        <v>0.3668508790601915</v>
       </c>
       <c r="F23">
-        <v>-0.4264574607963813</v>
+        <v>-0.4264574607963832</v>
       </c>
       <c r="G23">
-        <v>0.2888539517428992</v>
+        <v>0.2888539517428994</v>
       </c>
       <c r="H23">
         <v>-0.7102348023563003</v>
       </c>
       <c r="I23">
-        <v>0.07646966607801391</v>
+        <v>0.07646966607801081</v>
       </c>
       <c r="J23">
-        <v>0.3699830420966116</v>
+        <v>0.3699830420966112</v>
       </c>
       <c r="K23">
-        <v>0.2011083953879175</v>
+        <v>0.2011083953879187</v>
       </c>
       <c r="L23">
-        <v>-0.0912044327261432</v>
+        <v>-0.09120443272614198</v>
       </c>
       <c r="M23">
-        <v>1.110223024625157e-15</v>
+        <v>1.942890293094024e-16</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -6107,34 +6107,34 @@
         <v>5.606562697551281</v>
       </c>
       <c r="D24">
-        <v>-3.923803219621838</v>
+        <v>-3.923803219621833</v>
       </c>
       <c r="E24">
-        <v>-1.270993054930522</v>
+        <v>-1.270993054930523</v>
       </c>
       <c r="F24">
-        <v>-0.6735909527255435</v>
+        <v>-0.673590952725545</v>
       </c>
       <c r="G24">
-        <v>-1.174400079261399</v>
+        <v>-1.174400079261398</v>
       </c>
       <c r="H24">
-        <v>0.1477655416058752</v>
+        <v>0.1477655416058739</v>
       </c>
       <c r="I24">
-        <v>0.3054209612337042</v>
+        <v>0.3054209612337037</v>
       </c>
       <c r="J24">
-        <v>-0.07867145325589679</v>
+        <v>-0.07867145325589735</v>
       </c>
       <c r="K24">
-        <v>-0.03917715696761061</v>
+        <v>-0.03917715696761007</v>
       </c>
       <c r="L24">
-        <v>0.009366515085974258</v>
+        <v>0.009366515085974525</v>
       </c>
       <c r="M24">
-        <v>8.881784197001252e-16</v>
+        <v>1.318389841742373e-16</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -6148,34 +6148,34 @@
         <v>5.606864600812729</v>
       </c>
       <c r="D25">
-        <v>-4.085729599564383</v>
+        <v>-4.085729599564379</v>
       </c>
       <c r="E25">
-        <v>0.7336027508915539</v>
+        <v>0.7336027508915518</v>
       </c>
       <c r="F25">
-        <v>-0.5022226957326845</v>
+        <v>-0.5022226957326856</v>
       </c>
       <c r="G25">
-        <v>0.3714297068697724</v>
+        <v>0.3714297068697732</v>
       </c>
       <c r="H25">
-        <v>-0.3850938897178985</v>
+        <v>-0.3850938897178968</v>
       </c>
       <c r="I25">
-        <v>-0.5479690367287344</v>
+        <v>-0.5479690367287356</v>
       </c>
       <c r="J25">
-        <v>0.111313844613256</v>
+        <v>0.1113138446132556</v>
       </c>
       <c r="K25">
-        <v>0.2392507270545232</v>
+        <v>0.2392507270545239</v>
       </c>
       <c r="L25">
-        <v>-0.05736154212622928</v>
+        <v>-0.05736154212622846</v>
       </c>
       <c r="M25">
-        <v>6.661338147750939e-16</v>
+        <v>1.054711873393899e-15</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -6189,34 +6189,34 @@
         <v>5.607417783737577</v>
       </c>
       <c r="D26">
-        <v>-3.744380368467506</v>
+        <v>-3.744380368467502</v>
       </c>
       <c r="E26">
-        <v>-0.5370954415316638</v>
+        <v>-0.5370954415316654</v>
       </c>
       <c r="F26">
-        <v>-0.2483076343191579</v>
+        <v>-0.2483076343191592</v>
       </c>
       <c r="G26">
-        <v>-0.6745114766013884</v>
+        <v>-0.6745114766013873</v>
       </c>
       <c r="H26">
-        <v>0.7743560557981713</v>
+        <v>0.7743560557981742</v>
       </c>
       <c r="I26">
-        <v>-1.051656237071343</v>
+        <v>-1.051656237071341</v>
       </c>
       <c r="J26">
-        <v>-0.3847261717104012</v>
+        <v>-0.3847261717104009</v>
       </c>
       <c r="K26">
-        <v>-0.04006444323851267</v>
+        <v>-0.04006444323851216</v>
       </c>
       <c r="L26">
-        <v>-0.09746642537031641</v>
+        <v>-0.09746642537031658</v>
       </c>
       <c r="M26">
-        <v>1.554312234475219e-15</v>
+        <v>1.31492039479042e-15</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -6230,34 +6230,34 @@
         <v>5.608895493658637</v>
       </c>
       <c r="D27">
-        <v>-4.30109421113904</v>
+        <v>-4.301094211139035</v>
       </c>
       <c r="E27">
-        <v>-0.5620033948559082</v>
+        <v>-0.5620033948559101</v>
       </c>
       <c r="F27">
-        <v>-0.4157858726509727</v>
+        <v>-0.4157858726509742</v>
       </c>
       <c r="G27">
-        <v>-0.3205439629448485</v>
+        <v>-0.3205439629448475</v>
       </c>
       <c r="H27">
-        <v>-0.1806971805354662</v>
+        <v>-0.1806971805354658</v>
       </c>
       <c r="I27">
-        <v>-0.1821200496241024</v>
+        <v>-0.1821200496241034</v>
       </c>
       <c r="J27">
-        <v>0.03929051934123892</v>
+        <v>0.03929051934123848</v>
       </c>
       <c r="K27">
-        <v>0.04575092177600347</v>
+        <v>0.04575092177600436</v>
       </c>
       <c r="L27">
-        <v>0.04358880414926623</v>
+        <v>0.04358880414926669</v>
       </c>
       <c r="M27">
-        <v>1.554312234475219e-15</v>
+        <v>1.10848830114918e-15</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -6271,34 +6271,34 @@
         <v>5.608420949100326</v>
       </c>
       <c r="D28">
-        <v>-2.116566402047698</v>
+        <v>-2.1165664020477</v>
       </c>
       <c r="E28">
-        <v>7.791480639036514</v>
+        <v>7.791480639036511</v>
       </c>
       <c r="F28">
-        <v>-1.101189193597506</v>
+        <v>-1.101189193597508</v>
       </c>
       <c r="G28">
-        <v>2.346891165402577</v>
+        <v>2.346891165402578</v>
       </c>
       <c r="H28">
-        <v>-0.5232217247074699</v>
+        <v>-0.5232217247074704</v>
       </c>
       <c r="I28">
-        <v>-0.0536215400650946</v>
+        <v>-0.05362154006509549</v>
       </c>
       <c r="J28">
-        <v>-0.04913384443525588</v>
+        <v>-0.04913384443525467</v>
       </c>
       <c r="K28">
-        <v>0.006228840772203383</v>
+        <v>0.00622884077220365</v>
       </c>
       <c r="L28">
-        <v>-0.09376388102453412</v>
+        <v>-0.09376388102453376</v>
       </c>
       <c r="M28">
-        <v>-7.771561172376096e-16</v>
+        <v>-4.440892098500626e-16</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -6312,34 +6312,34 @@
         <v>5.611264392336714</v>
       </c>
       <c r="D29">
-        <v>-4.467917061235566</v>
+        <v>-4.467917061235561</v>
       </c>
       <c r="E29">
-        <v>-0.4800167842867199</v>
+        <v>-0.4800167842867218</v>
       </c>
       <c r="F29">
-        <v>0.1918071819122197</v>
+        <v>0.1918071819122183</v>
       </c>
       <c r="G29">
-        <v>-0.3197151276671674</v>
+        <v>-0.3197151276671676</v>
       </c>
       <c r="H29">
-        <v>-0.6783751948899234</v>
+        <v>-0.6783751948899237</v>
       </c>
       <c r="I29">
-        <v>0.0105686532688107</v>
+        <v>0.01056865326880818</v>
       </c>
       <c r="J29">
         <v>0.3467018634052301</v>
       </c>
       <c r="K29">
-        <v>-0.1539667355581342</v>
+        <v>-0.1539667355581328</v>
       </c>
       <c r="L29">
-        <v>0.02944554744592277</v>
+        <v>0.02944554744592343</v>
       </c>
       <c r="M29">
-        <v>1.332267629550188e-15</v>
+        <v>1.301042606982605e-15</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -6353,34 +6353,34 @@
         <v>5.610068732569744</v>
       </c>
       <c r="D30">
-        <v>-4.751386060860065</v>
+        <v>-4.751386060860062</v>
       </c>
       <c r="E30">
-        <v>-0.05041015921451612</v>
+        <v>-0.05041015921451766</v>
       </c>
       <c r="F30">
-        <v>-0.2026479064957505</v>
+        <v>-0.2026479064957523</v>
       </c>
       <c r="G30">
-        <v>-0.2393859693776316</v>
+        <v>-0.2393859693776325</v>
       </c>
       <c r="H30">
-        <v>-1.439344520032956</v>
+        <v>-1.439344520032955</v>
       </c>
       <c r="I30">
-        <v>-0.2581711870879793</v>
+        <v>-0.2581711870879844</v>
       </c>
       <c r="J30">
         <v>0.3890902340258698</v>
       </c>
       <c r="K30">
-        <v>0.1274801497482249</v>
+        <v>0.1274801497482261</v>
       </c>
       <c r="L30">
-        <v>-0.01621072922178769</v>
+        <v>-0.01621072922178657</v>
       </c>
       <c r="M30">
-        <v>1.110223024625157e-15</v>
+        <v>-2.220446049250313e-16</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -6394,34 +6394,34 @@
         <v>5.611141756695298</v>
       </c>
       <c r="D31">
-        <v>-4.821075619558016</v>
+        <v>-4.82107561955801</v>
       </c>
       <c r="E31">
-        <v>-1.630588067582754</v>
+        <v>-1.630588067582756</v>
       </c>
       <c r="F31">
-        <v>-0.7989809654730472</v>
+        <v>-0.7989809654730484</v>
       </c>
       <c r="G31">
-        <v>-0.2643912373705904</v>
+        <v>-0.2643912373705898</v>
       </c>
       <c r="H31">
-        <v>-0.8325686789635556</v>
+        <v>-0.8325686789635555</v>
       </c>
       <c r="I31">
-        <v>-0.1402351156376048</v>
+        <v>-0.1402351156376083</v>
       </c>
       <c r="J31">
-        <v>0.2460345494155539</v>
+        <v>0.2460345494155527</v>
       </c>
       <c r="K31">
-        <v>0.351136929999099</v>
+        <v>0.3511369299991001</v>
       </c>
       <c r="L31">
-        <v>-0.1514755327405228</v>
+        <v>-0.1514755327405217</v>
       </c>
       <c r="M31">
-        <v>4.440892098500626e-16</v>
+        <v>7.008282842946301e-16</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -6435,13 +6435,13 @@
         <v>5.613429376086693</v>
       </c>
       <c r="D32">
-        <v>-3.882001456696957</v>
+        <v>-3.882001456696953</v>
       </c>
       <c r="E32">
-        <v>-0.8811224568291183</v>
+        <v>-0.8811224568291205</v>
       </c>
       <c r="F32">
-        <v>-0.6977326247928622</v>
+        <v>-0.697732624792864</v>
       </c>
       <c r="G32">
         <v>-1.015915404614343</v>
@@ -6450,19 +6450,19 @@
         <v>-0.3818143391658984</v>
       </c>
       <c r="I32">
-        <v>-0.1004500381881144</v>
+        <v>-0.1004500381881163</v>
       </c>
       <c r="J32">
-        <v>0.09409769236884524</v>
+        <v>0.09409769236884506</v>
       </c>
       <c r="K32">
-        <v>-0.04520465574649217</v>
+        <v>-0.04520465574649155</v>
       </c>
       <c r="L32">
-        <v>0.03364240217122942</v>
+        <v>0.03364240217122982</v>
       </c>
       <c r="M32">
-        <v>1.332267629550188e-15</v>
+        <v>8.326672684688674e-17</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -6476,34 +6476,34 @@
         <v>5.611264799024002</v>
       </c>
       <c r="D33">
-        <v>-6.488322855158795</v>
+        <v>-6.488322855158788</v>
       </c>
       <c r="E33">
-        <v>-1.50351109910114</v>
+        <v>-1.503511099101142</v>
       </c>
       <c r="F33">
-        <v>0.4914056247781826</v>
+        <v>0.4914056247781807</v>
       </c>
       <c r="G33">
-        <v>-0.2256416691194287</v>
+        <v>-0.2256416691194279</v>
       </c>
       <c r="H33">
-        <v>0.08058954000538848</v>
+        <v>0.08058954000539162</v>
       </c>
       <c r="I33">
-        <v>-0.9250275618818037</v>
+        <v>-0.9250275618818032</v>
       </c>
       <c r="J33">
-        <v>-0.3457634000305571</v>
+        <v>-0.3457634000305567</v>
       </c>
       <c r="K33">
-        <v>-0.103878119741214</v>
+        <v>-0.1038781197412135</v>
       </c>
       <c r="L33">
-        <v>-0.003815389795748081</v>
+        <v>-0.003815389795748025</v>
       </c>
       <c r="M33">
-        <v>2.442490654175344e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -6517,34 +6517,34 @@
         <v>5.614126365701509</v>
       </c>
       <c r="D34">
-        <v>-5.728733319504503</v>
+        <v>-5.728733319504498</v>
       </c>
       <c r="E34">
-        <v>-0.7792479510064569</v>
+        <v>-0.7792479510064592</v>
       </c>
       <c r="F34">
-        <v>0.1444725421562747</v>
+        <v>0.1444725421562723</v>
       </c>
       <c r="G34">
         <v>-1.113353497008184</v>
       </c>
       <c r="H34">
-        <v>-0.225101753874744</v>
+        <v>-0.225101753874743</v>
       </c>
       <c r="I34">
-        <v>-0.2547062244740896</v>
+        <v>-0.2547062244740913</v>
       </c>
       <c r="J34">
-        <v>0.01667838918335034</v>
+        <v>0.01667838918335018</v>
       </c>
       <c r="K34">
-        <v>-0.2561645296803473</v>
+        <v>-0.2561645296803466</v>
       </c>
       <c r="L34">
-        <v>0.03742167435596357</v>
+        <v>0.03742167435596389</v>
       </c>
       <c r="M34">
-        <v>2.442490654175344e-15</v>
+        <v>8.118505867571457e-16</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -6558,34 +6558,34 @@
         <v>5.602296254214171</v>
       </c>
       <c r="D35">
-        <v>-4.542624033266804</v>
+        <v>-4.542624033266799</v>
       </c>
       <c r="E35">
-        <v>-2.157883572546603</v>
+        <v>-2.157883572546604</v>
       </c>
       <c r="F35">
-        <v>-0.8772902929591022</v>
+        <v>-0.8772902929591031</v>
       </c>
       <c r="G35">
         <v>-0.2479845641525076</v>
       </c>
       <c r="H35">
-        <v>-1.463671675237216</v>
+        <v>-1.463671675237214</v>
       </c>
       <c r="I35">
-        <v>-0.7495725142424845</v>
+        <v>-0.7495725142424896</v>
       </c>
       <c r="J35">
-        <v>0.04125880997530116</v>
+        <v>0.04125880997530061</v>
       </c>
       <c r="K35">
-        <v>0.2487737939426492</v>
+        <v>0.2487737939426501</v>
       </c>
       <c r="L35">
-        <v>0.09105406396535727</v>
+        <v>0.09105406396535787</v>
       </c>
       <c r="M35">
-        <v>1.77635683940025e-15</v>
+        <v>5.828670879282072e-16</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -6599,34 +6599,34 @@
         <v>5.603205349562248</v>
       </c>
       <c r="D36">
-        <v>-5.095900534838645</v>
+        <v>-5.09590053483864</v>
       </c>
       <c r="E36">
-        <v>-0.2776810281364213</v>
+        <v>-0.277681028136423</v>
       </c>
       <c r="F36">
-        <v>-0.0214921087679965</v>
+        <v>-0.02149210876799808</v>
       </c>
       <c r="G36">
-        <v>0.1836316108765854</v>
+        <v>0.1836316108765846</v>
       </c>
       <c r="H36">
-        <v>-1.088365570763779</v>
+        <v>-1.088365570763777</v>
       </c>
       <c r="I36">
-        <v>-0.5247890912448754</v>
+        <v>-0.5247890912448786</v>
       </c>
       <c r="J36">
-        <v>0.2629284007766497</v>
+        <v>0.2629284007766487</v>
       </c>
       <c r="K36">
-        <v>0.04425436453382767</v>
+        <v>0.04425436453382843</v>
       </c>
       <c r="L36">
-        <v>0.0181926032286267</v>
+        <v>0.0181926032286277</v>
       </c>
       <c r="M36">
-        <v>1.998401444325282e-15</v>
+        <v>7.494005416219807e-16</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -6640,34 +6640,34 @@
         <v>5.604798666926542</v>
       </c>
       <c r="D37">
-        <v>-4.693955985693553</v>
+        <v>-4.693955985693551</v>
       </c>
       <c r="E37">
-        <v>-2.603172684262022</v>
+        <v>-2.603172684262024</v>
       </c>
       <c r="F37">
-        <v>-1.803501999576308</v>
+        <v>-1.80350199957631</v>
       </c>
       <c r="G37">
         <v>-1.00753176044261</v>
       </c>
       <c r="H37">
-        <v>-0.7538289573784513</v>
+        <v>-0.753828957378451</v>
       </c>
       <c r="I37">
-        <v>-0.4160397509753959</v>
+        <v>-0.4160397509753992</v>
       </c>
       <c r="J37">
-        <v>0.1867467830342868</v>
+        <v>0.1867467830342862</v>
       </c>
       <c r="K37">
-        <v>0.1908929216723838</v>
+        <v>0.1908929216723849</v>
       </c>
       <c r="L37">
-        <v>0.04509539966659455</v>
+        <v>0.04509539966659482</v>
       </c>
       <c r="M37">
-        <v>1.77635683940025e-15</v>
+        <v>8.604228440844963e-16</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -6681,34 +6681,34 @@
         <v>5.599278965530786</v>
       </c>
       <c r="D38">
-        <v>9.044993841327175</v>
+        <v>9.044993841327162</v>
       </c>
       <c r="E38">
-        <v>6.072904532366964</v>
+        <v>6.072904532366965</v>
       </c>
       <c r="F38">
-        <v>0.401536445585232</v>
+        <v>0.4015364455852329</v>
       </c>
       <c r="G38">
-        <v>-0.2705454144915804</v>
+        <v>-0.2705454144915839</v>
       </c>
       <c r="H38">
-        <v>-0.6223272721060286</v>
+        <v>-0.6223272721060261</v>
       </c>
       <c r="I38">
-        <v>-0.7508444381873081</v>
+        <v>-0.7508444381873076</v>
       </c>
       <c r="J38">
-        <v>-0.4117100680056421</v>
+        <v>-0.4117100680056399</v>
       </c>
       <c r="K38">
-        <v>-0.3828907588932773</v>
+        <v>-0.3828907588932779</v>
       </c>
       <c r="L38">
-        <v>0.05472621210069389</v>
+        <v>0.05472621210069306</v>
       </c>
       <c r="M38">
-        <v>-2.664535259100376e-15</v>
+        <v>1.110223024625157e-15</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -6722,34 +6722,34 @@
         <v>5.598668078622648</v>
       </c>
       <c r="D39">
-        <v>9.757063993335896</v>
+        <v>9.757063993335883</v>
       </c>
       <c r="E39">
-        <v>5.797649623664782</v>
+        <v>5.797649623664783</v>
       </c>
       <c r="F39">
-        <v>-1.908676614969463</v>
+        <v>-1.908676614969462</v>
       </c>
       <c r="G39">
-        <v>0.1295911599770221</v>
+        <v>0.1295911599770214</v>
       </c>
       <c r="H39">
-        <v>-0.6444081704092396</v>
+        <v>-0.6444081704092381</v>
       </c>
       <c r="I39">
-        <v>-0.7151885004416372</v>
+        <v>-0.7151885004416385</v>
       </c>
       <c r="J39">
-        <v>-0.3208970214588486</v>
+        <v>-0.3208970214588466</v>
       </c>
       <c r="K39">
-        <v>0.3938926322924274</v>
+        <v>0.3938926322924275</v>
       </c>
       <c r="L39">
         <v>-0.1839861505735274</v>
       </c>
       <c r="M39">
-        <v>-3.108624468950438e-15</v>
+        <v>-2.220446049250313e-16</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -6763,34 +6763,34 @@
         <v>5.597647077181416</v>
       </c>
       <c r="D40">
-        <v>9.986218309607249</v>
+        <v>9.986218309607237</v>
       </c>
       <c r="E40">
-        <v>5.856061238621384</v>
+        <v>5.856061238621383</v>
       </c>
       <c r="F40">
-        <v>-2.403390727905796</v>
+        <v>-2.403390727905793</v>
       </c>
       <c r="G40">
-        <v>0.3139660115979208</v>
+        <v>0.3139660115979196</v>
       </c>
       <c r="H40">
-        <v>-0.7069540815517827</v>
+        <v>-0.7069540815517864</v>
       </c>
       <c r="I40">
-        <v>0.7273992600722192</v>
+        <v>0.7273992600722176</v>
       </c>
       <c r="J40">
-        <v>0.01125278459294354</v>
+        <v>0.0112527845929461</v>
       </c>
       <c r="K40">
-        <v>-0.2180578509427919</v>
+        <v>-0.218057850942791</v>
       </c>
       <c r="L40">
-        <v>-0.1212997334884477</v>
+        <v>-0.1212997334884476</v>
       </c>
       <c r="M40">
-        <v>-1.332267629550188e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -6804,34 +6804,34 @@
         <v>5.603107125510143</v>
       </c>
       <c r="D41">
-        <v>9.705564339457407</v>
+        <v>9.7055643394574</v>
       </c>
       <c r="E41">
-        <v>-4.553046226875415</v>
+        <v>-4.553046226875411</v>
       </c>
       <c r="F41">
-        <v>-0.7593035034916157</v>
+        <v>-0.759303503491612</v>
       </c>
       <c r="G41">
-        <v>-2.406718942747299</v>
+        <v>-2.4067189427473</v>
       </c>
       <c r="H41">
-        <v>0.6712059459739749</v>
+        <v>0.6712059459739702</v>
       </c>
       <c r="I41">
-        <v>1.326280336780616</v>
+        <v>1.326280336780617</v>
       </c>
       <c r="J41">
-        <v>-0.4453835428257011</v>
+        <v>-0.4453835428257005</v>
       </c>
       <c r="K41">
-        <v>0.1188291835969112</v>
+        <v>0.1188291835969111</v>
       </c>
       <c r="L41">
-        <v>-0.1772448255423235</v>
+        <v>-0.1772448255423237</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-8.326672684688674e-16</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -6848,31 +6848,31 @@
         <v>10.1297707593153</v>
       </c>
       <c r="E42">
-        <v>-4.255620531201863</v>
+        <v>-4.25562053120186</v>
       </c>
       <c r="F42">
-        <v>-1.258348706101916</v>
+        <v>-1.258348706101911</v>
       </c>
       <c r="G42">
-        <v>-2.198583299031339</v>
+        <v>-2.19858329903134</v>
       </c>
       <c r="H42">
-        <v>0.351264331593518</v>
+        <v>0.3512643315935146</v>
       </c>
       <c r="I42">
-        <v>0.8441546646761278</v>
+        <v>0.844154664676127</v>
       </c>
       <c r="J42">
-        <v>0.04411335820329585</v>
+        <v>0.04411335820329695</v>
       </c>
       <c r="K42">
-        <v>-0.07626754976435379</v>
+        <v>-0.07626754976435204</v>
       </c>
       <c r="L42">
-        <v>-0.2085283456204189</v>
+        <v>-0.2085283456204188</v>
       </c>
       <c r="M42">
-        <v>-1.110223024625157e-15</v>
+        <v>-7.216449660063518e-16</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -6886,34 +6886,34 @@
         <v>5.606360246682461</v>
       </c>
       <c r="D43">
-        <v>9.021688046779458</v>
+        <v>9.021688046779447</v>
       </c>
       <c r="E43">
-        <v>5.218694528121467</v>
+        <v>5.218694528121464</v>
       </c>
       <c r="F43">
-        <v>-7.01627741145914</v>
+        <v>-7.016277411459139</v>
       </c>
       <c r="G43">
-        <v>-0.7072036692931264</v>
+        <v>-0.7072036692931152</v>
       </c>
       <c r="H43">
-        <v>8.921818763915686</v>
+        <v>8.921818763915685</v>
       </c>
       <c r="I43">
-        <v>-0.9346993506378234</v>
+        <v>-0.9346993506377955</v>
       </c>
       <c r="J43">
-        <v>0.4666441856481894</v>
+        <v>0.4666441856481913</v>
       </c>
       <c r="K43">
-        <v>-0.007479368605649959</v>
+        <v>-0.007479368605648566</v>
       </c>
       <c r="L43">
-        <v>0.1263394463973056</v>
+        <v>0.1263394463973069</v>
       </c>
       <c r="M43">
-        <v>-3.552713678800501e-15</v>
+        <v>3.719247132494274e-15</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -6927,34 +6927,34 @@
         <v>5.601004654511188</v>
       </c>
       <c r="D44">
-        <v>5.696891640081387</v>
+        <v>5.696891640081382</v>
       </c>
       <c r="E44">
-        <v>7.066373881611918</v>
+        <v>7.066373881611922</v>
       </c>
       <c r="F44">
-        <v>8.742422208797914</v>
+        <v>8.742422208797915</v>
       </c>
       <c r="G44">
-        <v>-2.095486081694588</v>
+        <v>-2.095486081694594</v>
       </c>
       <c r="H44">
-        <v>1.60071272163851</v>
+        <v>1.600712721638508</v>
       </c>
       <c r="I44">
-        <v>1.378685460030691</v>
+        <v>1.378685460030694</v>
       </c>
       <c r="J44">
-        <v>-0.125706875894153</v>
+        <v>-0.1257068758941519</v>
       </c>
       <c r="K44">
-        <v>0.5978459541314869</v>
+        <v>0.5978459541314887</v>
       </c>
       <c r="L44">
-        <v>0.1120932054963969</v>
+        <v>0.1120932054963948</v>
       </c>
       <c r="M44">
-        <v>2.664535259100376e-15</v>
+        <v>-8.326672684688674e-16</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -6968,34 +6968,34 @@
         <v>5.607889946133399</v>
       </c>
       <c r="D45">
-        <v>8.848926129032572</v>
+        <v>8.848926129032565</v>
       </c>
       <c r="E45">
-        <v>-3.790169186058509</v>
+        <v>-3.790169186058503</v>
       </c>
       <c r="F45">
-        <v>1.801205744514545</v>
+        <v>1.801205744514549</v>
       </c>
       <c r="G45">
-        <v>-2.780211341719231</v>
+        <v>-2.780211341719234</v>
       </c>
       <c r="H45">
-        <v>0.4592778560372102</v>
+        <v>0.4592778560372137</v>
       </c>
       <c r="I45">
-        <v>-0.91970421759612</v>
+        <v>-0.9197042175961185</v>
       </c>
       <c r="J45">
-        <v>-0.4866142148179561</v>
+        <v>-0.486614214817956</v>
       </c>
       <c r="K45">
-        <v>0.1520436149475515</v>
+        <v>0.1520436149475525</v>
       </c>
       <c r="L45">
-        <v>-0.04893760188136009</v>
+        <v>-0.04893760188136143</v>
       </c>
       <c r="M45">
-        <v>-8.881784197001252e-16</v>
+        <v>1.27675647831893e-15</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -7009,34 +7009,34 @@
         <v>5.604740901488912</v>
       </c>
       <c r="D46">
-        <v>9.741536725538445</v>
+        <v>9.741536725538436</v>
       </c>
       <c r="E46">
-        <v>6.099979510779607</v>
+        <v>6.099979510779608</v>
       </c>
       <c r="F46">
-        <v>-0.5766473088296031</v>
+        <v>-0.5766473088296014</v>
       </c>
       <c r="G46">
-        <v>0.1113658576452742</v>
+        <v>0.1113658576452715</v>
       </c>
       <c r="H46">
         <v>-1.560776140993879</v>
       </c>
       <c r="I46">
-        <v>0.0691661636095272</v>
+        <v>0.06916616360952302</v>
       </c>
       <c r="J46">
-        <v>0.005861286861404707</v>
+        <v>0.005861286861406291</v>
       </c>
       <c r="K46">
-        <v>0.2518251637549311</v>
+        <v>0.251825163754932</v>
       </c>
       <c r="L46">
-        <v>-0.05228331923654153</v>
+        <v>-0.05228331923654173</v>
       </c>
       <c r="M46">
-        <v>-1.332267629550188e-15</v>
+        <v>1.332267629550188e-15</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -7050,34 +7050,34 @@
         <v>5.601202604324987</v>
       </c>
       <c r="D47">
-        <v>9.529679817447317</v>
+        <v>9.529679817447306</v>
       </c>
       <c r="E47">
-        <v>6.197231247217633</v>
+        <v>6.197231247217635</v>
       </c>
       <c r="F47">
-        <v>0.1369452624901325</v>
+        <v>0.1369452624901346</v>
       </c>
       <c r="G47">
-        <v>-0.06411647506116874</v>
+        <v>-0.06411647506117221</v>
       </c>
       <c r="H47">
-        <v>-1.308116961143248</v>
+        <v>-1.308116961143246</v>
       </c>
       <c r="I47">
-        <v>-0.4188520615647296</v>
+        <v>-0.4188520615647329</v>
       </c>
       <c r="J47">
-        <v>0.2261824504695286</v>
+        <v>0.2261824504695305</v>
       </c>
       <c r="K47">
-        <v>-0.09110557407449722</v>
+        <v>-0.09110557407449654</v>
       </c>
       <c r="L47">
-        <v>-0.01731420105479445</v>
+        <v>-0.01731420105479353</v>
       </c>
       <c r="M47">
-        <v>-2.664535259100376e-15</v>
+        <v>-6.661338147750939e-16</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -7091,34 +7091,34 @@
         <v>5.607993516486201</v>
       </c>
       <c r="D48">
-        <v>9.591066252275956</v>
+        <v>9.591066252275949</v>
       </c>
       <c r="E48">
-        <v>-4.087291889572191</v>
+        <v>-4.087291889572185</v>
       </c>
       <c r="F48">
-        <v>2.237934302061324</v>
+        <v>2.237934302061328</v>
       </c>
       <c r="G48">
-        <v>-2.609207076723532</v>
+        <v>-2.609207076723537</v>
       </c>
       <c r="H48">
-        <v>-1.192084233527041</v>
+        <v>-1.192084233527039</v>
       </c>
       <c r="I48">
-        <v>-0.2409140773120424</v>
+        <v>-0.240914077312047</v>
       </c>
       <c r="J48">
-        <v>0.3640594993766648</v>
+        <v>0.3640594993766665</v>
       </c>
       <c r="K48">
-        <v>-0.256241884494239</v>
+        <v>-0.2562418844942376</v>
       </c>
       <c r="L48">
-        <v>0.08321679881446814</v>
+        <v>0.08321679881446808</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>-6.106226635438361e-16</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -7132,34 +7132,34 @@
         <v>5.613423512014134</v>
       </c>
       <c r="D49">
-        <v>9.963905932166636</v>
+        <v>9.963905932166625</v>
       </c>
       <c r="E49">
-        <v>-4.183324283229133</v>
+        <v>-4.183324283229129</v>
       </c>
       <c r="F49">
-        <v>1.044078005797536</v>
+        <v>1.04407800579754</v>
       </c>
       <c r="G49">
-        <v>-2.436263871177824</v>
+        <v>-2.436263871177828</v>
       </c>
       <c r="H49">
-        <v>-0.9584094080821564</v>
+        <v>-0.9584094080821554</v>
       </c>
       <c r="I49">
-        <v>-0.07523416067830264</v>
+        <v>-0.07523416067830657</v>
       </c>
       <c r="J49">
-        <v>0.4897563366670906</v>
+        <v>0.4897563366670912</v>
       </c>
       <c r="K49">
-        <v>-0.002903664690696075</v>
+        <v>-0.002903664690694874</v>
       </c>
       <c r="L49">
-        <v>-0.04479137879609028</v>
+        <v>-0.04479137879608941</v>
       </c>
       <c r="M49">
-        <v>-1.554312234475219e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -7173,34 +7173,34 @@
         <v>5.615897913306592</v>
       </c>
       <c r="D50">
-        <v>9.774274590209792</v>
+        <v>9.774274590209783</v>
       </c>
       <c r="E50">
-        <v>-5.038816035070183</v>
+        <v>-5.038816035070178</v>
       </c>
       <c r="F50">
-        <v>1.164264175913746</v>
+        <v>1.164264175913751</v>
       </c>
       <c r="G50">
-        <v>-2.573576131389888</v>
+        <v>-2.573576131389892</v>
       </c>
       <c r="H50">
-        <v>-1.340961160349374</v>
+        <v>-1.340961160349369</v>
       </c>
       <c r="I50">
-        <v>-1.081194523615232</v>
+        <v>-1.081194523615237</v>
       </c>
       <c r="J50">
-        <v>-0.04372471838564485</v>
+        <v>-0.04372471838564469</v>
       </c>
       <c r="K50">
-        <v>0.01363356148550808</v>
+        <v>0.01363356148550883</v>
       </c>
       <c r="L50">
-        <v>0.3921085572186899</v>
+        <v>0.3921085572186898</v>
       </c>
       <c r="M50">
-        <v>-1.110223024625157e-15</v>
+        <v>-1.360023205165817e-15</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -7214,34 +7214,34 @@
         <v>5.60811216050709</v>
       </c>
       <c r="D51">
-        <v>4.189297083012763</v>
+        <v>4.18929708301276</v>
       </c>
       <c r="E51">
-        <v>-2.460461884120773</v>
+        <v>-2.460461884120768</v>
       </c>
       <c r="F51">
-        <v>1.849552182930974</v>
+        <v>1.849552182930979</v>
       </c>
       <c r="G51">
         <v>6.257724836428636</v>
       </c>
       <c r="H51">
-        <v>0.5086812701059177</v>
+        <v>0.5086812701059186</v>
       </c>
       <c r="I51">
-        <v>0.006681369626278893</v>
+        <v>0.006681369626282704</v>
       </c>
       <c r="J51">
-        <v>-0.1025423860131092</v>
+        <v>-0.1025423860131095</v>
       </c>
       <c r="K51">
-        <v>0.1657544401572819</v>
+        <v>0.1657544401572818</v>
       </c>
       <c r="L51">
-        <v>0.05927492267324568</v>
+        <v>0.05927492267324608</v>
       </c>
       <c r="M51">
-        <v>3.33066907387547e-16</v>
+        <v>1.554312234475219e-15</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -7255,34 +7255,34 @@
         <v>5.606212235503977</v>
       </c>
       <c r="D52">
-        <v>-1.553813324964907</v>
+        <v>-1.553813324964906</v>
       </c>
       <c r="E52">
-        <v>-2.126534329774679</v>
+        <v>-2.12653432977468</v>
       </c>
       <c r="F52">
         <v>-0.7988477174761983</v>
       </c>
       <c r="G52">
-        <v>-0.3123309753369377</v>
+        <v>-0.3123309753369369</v>
       </c>
       <c r="H52">
-        <v>-0.2187786354607137</v>
+        <v>-0.2187786354607166</v>
       </c>
       <c r="I52">
-        <v>0.7612784963485539</v>
+        <v>0.7612784963485525</v>
       </c>
       <c r="J52">
-        <v>0.02450158221179805</v>
+        <v>0.02450158221179783</v>
       </c>
       <c r="K52">
-        <v>-0.07156811768096476</v>
+        <v>-0.07156811768096415</v>
       </c>
       <c r="L52">
-        <v>0.185867892673258</v>
+        <v>0.1858678926732582</v>
       </c>
       <c r="M52">
-        <v>8.881784197001252e-16</v>
+        <v>6.38378239159465e-16</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -7296,34 +7296,34 @@
         <v>5.604550810725294</v>
       </c>
       <c r="D53">
-        <v>4.264075552813316</v>
+        <v>4.264075552813313</v>
       </c>
       <c r="E53">
-        <v>-3.313769116654715</v>
+        <v>-3.31376911665471</v>
       </c>
       <c r="F53">
-        <v>2.530143134043934</v>
+        <v>2.530143134043938</v>
       </c>
       <c r="G53">
-        <v>5.448891054528432</v>
+        <v>5.448891054528431</v>
       </c>
       <c r="H53">
-        <v>0.5391957065216321</v>
+        <v>0.5391957065216338</v>
       </c>
       <c r="I53">
-        <v>-0.1864174877568588</v>
+        <v>-0.186417487756855</v>
       </c>
       <c r="J53">
-        <v>-0.3162965761570061</v>
+        <v>-0.3162965761570053</v>
       </c>
       <c r="K53">
-        <v>-0.2662754669142579</v>
+        <v>-0.2662754669142578</v>
       </c>
       <c r="L53">
-        <v>-0.1091940256673757</v>
+        <v>-0.1091940256673766</v>
       </c>
       <c r="M53">
-        <v>3.33066907387547e-16</v>
+        <v>-4.440892098500626e-16</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -7337,34 +7337,34 @@
         <v>5.606676167416156</v>
       </c>
       <c r="D54">
-        <v>9.761838586585034</v>
+        <v>9.761838586585025</v>
       </c>
       <c r="E54">
-        <v>-5.116482903781848</v>
+        <v>-5.116482903781843</v>
       </c>
       <c r="F54">
-        <v>1.308685067104536</v>
+        <v>1.30868506710454</v>
       </c>
       <c r="G54">
-        <v>-2.68458431216187</v>
+        <v>-2.684584312161874</v>
       </c>
       <c r="H54">
-        <v>-0.9625113414179748</v>
+        <v>-0.9625113414179726</v>
       </c>
       <c r="I54">
-        <v>-0.4077536560284525</v>
+        <v>-0.4077536560284561</v>
       </c>
       <c r="J54">
-        <v>-0.01417914835301104</v>
+        <v>-0.01417914835301057</v>
       </c>
       <c r="K54">
-        <v>-0.101872296557012</v>
+        <v>-0.1018722965570116</v>
       </c>
       <c r="L54">
-        <v>0.1326523262124539</v>
+        <v>0.1326523262124533</v>
       </c>
       <c r="M54">
-        <v>6.661338147750939e-16</v>
+        <v>6.106226635438361e-16</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -7378,34 +7378,34 @@
         <v>5.609498753555931</v>
       </c>
       <c r="D55">
-        <v>-1.827831999787664</v>
+        <v>-1.827831999787662</v>
       </c>
       <c r="E55">
-        <v>-2.731558898269843</v>
+        <v>-2.731558898269844</v>
       </c>
       <c r="F55">
-        <v>-0.6496915372159633</v>
+        <v>-0.6496915372159628</v>
       </c>
       <c r="G55">
-        <v>0.02459117025099647</v>
+        <v>0.02459117025099753</v>
       </c>
       <c r="H55">
-        <v>0.08711867460108813</v>
+        <v>0.08711867460108683</v>
       </c>
       <c r="I55">
-        <v>0.3036797558720116</v>
+        <v>0.3036797558720112</v>
       </c>
       <c r="J55">
-        <v>0.2060888253253817</v>
+        <v>0.2060888253253815</v>
       </c>
       <c r="K55">
-        <v>-0.1025551526728744</v>
+        <v>-0.1025551526728735</v>
       </c>
       <c r="L55">
-        <v>0.126285555439431</v>
+        <v>0.1262855554394314</v>
       </c>
       <c r="M55">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -7419,34 +7419,34 @@
         <v>5.609460466781855</v>
       </c>
       <c r="D56">
-        <v>-3.757280694104025</v>
+        <v>-3.757280694104022</v>
       </c>
       <c r="E56">
-        <v>-4.203723913982358</v>
+        <v>-4.203723913982361</v>
       </c>
       <c r="F56">
-        <v>-3.306148914227506</v>
+        <v>-3.306148914227507</v>
       </c>
       <c r="G56">
-        <v>-0.2651809206850048</v>
+        <v>-0.2651809206850012</v>
       </c>
       <c r="H56">
-        <v>0.05028741956442077</v>
+        <v>0.05028741956441572</v>
       </c>
       <c r="I56">
-        <v>1.180185082068205</v>
+        <v>1.180185082068204</v>
       </c>
       <c r="J56">
-        <v>0.09016876770996378</v>
+        <v>0.09016876770996339</v>
       </c>
       <c r="K56">
-        <v>0.05108607446443237</v>
+        <v>0.05108607446443345</v>
       </c>
       <c r="L56">
-        <v>-0.01085923261251459</v>
+        <v>-0.01085923261251454</v>
       </c>
       <c r="M56">
-        <v>1.77635683940025e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -7460,34 +7460,34 @@
         <v>5.609490391007031</v>
       </c>
       <c r="D57">
-        <v>-3.042466429714488</v>
+        <v>-3.042466429714484</v>
       </c>
       <c r="E57">
-        <v>-4.662446083618018</v>
+        <v>-4.66244608361802</v>
       </c>
       <c r="F57">
-        <v>-3.894427805746712</v>
+        <v>-3.894427805746713</v>
       </c>
       <c r="G57">
-        <v>-0.2582177446686421</v>
+        <v>-0.2582177446686382</v>
       </c>
       <c r="H57">
-        <v>0.1871142850896414</v>
+        <v>0.1871142850896333</v>
       </c>
       <c r="I57">
-        <v>1.985160735494941</v>
+        <v>1.98516073549494</v>
       </c>
       <c r="J57">
-        <v>-0.08756268600907155</v>
+        <v>-0.08756268600907205</v>
       </c>
       <c r="K57">
-        <v>0.1049893174863475</v>
+        <v>0.1049893174863481</v>
       </c>
       <c r="L57">
-        <v>0.1049438956980185</v>
+        <v>0.1049438956980191</v>
       </c>
       <c r="M57">
-        <v>-4.440892098500626e-16</v>
+        <v>1.165734175856414e-15</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -7501,34 +7501,34 @@
         <v>5.612085903268771</v>
       </c>
       <c r="D58">
-        <v>-4.096108248406384</v>
+        <v>-4.096108248406379</v>
       </c>
       <c r="E58">
-        <v>-2.394432036960148</v>
+        <v>-2.39443203696015</v>
       </c>
       <c r="F58">
-        <v>-2.488248348017662</v>
+        <v>-2.488248348017663</v>
       </c>
       <c r="G58">
-        <v>-0.5726642805007696</v>
+        <v>-0.5726642805007671</v>
       </c>
       <c r="H58">
-        <v>-0.3353706239726156</v>
+        <v>-0.3353706239726211</v>
       </c>
       <c r="I58">
-        <v>1.216124718093619</v>
+        <v>1.216124718093616</v>
       </c>
       <c r="J58">
-        <v>-0.2325819957431826</v>
+        <v>-0.2325819957431823</v>
       </c>
       <c r="K58">
-        <v>-0.1368690718448508</v>
+        <v>-0.1368690718448504</v>
       </c>
       <c r="L58">
-        <v>0.02194599680793652</v>
+        <v>0.02194599680793674</v>
       </c>
       <c r="M58">
-        <v>4.440892098500626e-16</v>
+        <v>1.568190022283034e-15</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -7542,34 +7542,34 @@
         <v>5.612659722969409</v>
       </c>
       <c r="D59">
-        <v>4.18304835013256</v>
+        <v>4.183048350132557</v>
       </c>
       <c r="E59">
-        <v>-5.794333295075241</v>
+        <v>-5.794333295075236</v>
       </c>
       <c r="F59">
-        <v>0.225357869462045</v>
+        <v>0.2253578694620509</v>
       </c>
       <c r="G59">
-        <v>6.661249029493082</v>
+        <v>6.661249029493086</v>
       </c>
       <c r="H59">
-        <v>0.7707089400449864</v>
+        <v>0.7707089400449827</v>
       </c>
       <c r="I59">
-        <v>1.15993812624918</v>
+        <v>1.159938126249184</v>
       </c>
       <c r="J59">
-        <v>0.0823742021458766</v>
+        <v>0.08237420214587632</v>
       </c>
       <c r="K59">
-        <v>-0.1132830198204246</v>
+        <v>-0.1132830198204247</v>
       </c>
       <c r="L59">
-        <v>-0.02963426124194965</v>
+        <v>-0.02963426124194979</v>
       </c>
       <c r="M59">
-        <v>2.220446049250313e-16</v>
+        <v>1.77635683940025e-15</v>
       </c>
     </row>
   </sheetData>
@@ -7622,34 +7622,34 @@
         <v>76</v>
       </c>
       <c r="B2">
-        <v>0.5500824402366925</v>
+        <v>0.5500824402366927</v>
       </c>
       <c r="C2">
-        <v>0.2479728243481112</v>
+        <v>0.247972824348111</v>
       </c>
       <c r="D2">
-        <v>0.09677356599725183</v>
+        <v>0.09677356599725154</v>
       </c>
       <c r="E2">
-        <v>0.06409472535438143</v>
+        <v>0.06409472535438156</v>
       </c>
       <c r="F2">
-        <v>0.03218309936648964</v>
+        <v>0.03218309936648966</v>
       </c>
       <c r="G2">
-        <v>0.007309535159963821</v>
+        <v>0.007309535159963811</v>
       </c>
       <c r="H2">
-        <v>0.0008667168093256317</v>
+        <v>0.0008667168093256334</v>
       </c>
       <c r="I2">
-        <v>0.0004907327415252307</v>
+        <v>0.0004907327415252318</v>
       </c>
       <c r="J2">
-        <v>0.0002263599862586577</v>
+        <v>0.0002263599862586576</v>
       </c>
       <c r="K2">
-        <v>8.7931978498522e-33</v>
+        <v>1.290874573176756e-32</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7657,34 +7657,34 @@
         <v>77</v>
       </c>
       <c r="B3">
-        <v>0.4462417880238222</v>
+        <v>0.4462417880238223</v>
       </c>
       <c r="C3">
-        <v>0.3348675192846023</v>
+        <v>0.3348675192846026</v>
       </c>
       <c r="D3">
-        <v>0.1644067617990842</v>
+        <v>0.164406761799084</v>
       </c>
       <c r="E3">
-        <v>0.0390953240202876</v>
+        <v>0.03909532402028767</v>
       </c>
       <c r="F3">
-        <v>0.009142569344048517</v>
+        <v>0.009142569344048505</v>
       </c>
       <c r="G3">
-        <v>0.004395432088485807</v>
+        <v>0.004395432088485795</v>
       </c>
       <c r="H3">
-        <v>0.001250421176528539</v>
+        <v>0.001250421176528537</v>
       </c>
       <c r="I3">
-        <v>0.0005229105102766808</v>
+        <v>0.0005229105102766807</v>
       </c>
       <c r="J3">
-        <v>7.727375286397695e-05</v>
+        <v>7.727375286397681e-05</v>
       </c>
       <c r="K3">
-        <v>1.771065251554311e-32</v>
+        <v>1.252922588060647e-32</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7692,34 +7692,34 @@
         <v>78</v>
       </c>
       <c r="B4">
-        <v>0.7209441028920676</v>
+        <v>0.7209441028920682</v>
       </c>
       <c r="C4">
-        <v>0.1448892061095205</v>
+        <v>0.1448892061095201</v>
       </c>
       <c r="D4">
-        <v>0.09591429282106401</v>
+        <v>0.09591429282106383</v>
       </c>
       <c r="E4">
-        <v>0.02063141818469586</v>
+        <v>0.02063141818469581</v>
       </c>
       <c r="F4">
-        <v>0.01132621074352486</v>
+        <v>0.01132621074352485</v>
       </c>
       <c r="G4">
-        <v>0.003470318765745797</v>
+        <v>0.003470318765745787</v>
       </c>
       <c r="H4">
-        <v>0.001707841202789564</v>
+        <v>0.001707841202789558</v>
       </c>
       <c r="I4">
-        <v>0.0009134363512550872</v>
+        <v>0.0009134363512550827</v>
       </c>
       <c r="J4">
-        <v>0.0002031729293367847</v>
+        <v>0.0002031729293367842</v>
       </c>
       <c r="K4">
-        <v>1.257211180221251e-32</v>
+        <v>1.407727891724597e-32</v>
       </c>
     </row>
   </sheetData>
